--- a/桌面/抗通胀/流程额度.xlsx
+++ b/桌面/抗通胀/流程额度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\抗通胀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2F6B75-A514-445D-9858-46DFD26AAE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE8FC2C-5C2E-4007-BB86-8417B3F3C0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基金额度" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">股票额度!$A$1:$I$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基金额度!$A$1:$H$97</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="254">
   <si>
     <t>代码</t>
   </si>
@@ -866,18 +866,21 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -915,6 +918,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -922,6 +926,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1370,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -2547,10 +2552,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2928,7 +2933,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>154.5949</v>
+        <v>189.14689999999999</v>
       </c>
       <c r="K9">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I9,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -2936,7 +2941,7 @@
       </c>
       <c r="L9" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>195.4051</v>
+        <v>160.85310000000001</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -3456,7 +3461,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>119.87009999999999</v>
+        <v>170.9633</v>
       </c>
       <c r="K21">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I21,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3464,7 +3469,7 @@
       </c>
       <c r="L21" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>380.12990000000002</v>
+        <v>329.0367</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -3500,7 +3505,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>120.1101</v>
+        <v>311.34429999999998</v>
       </c>
       <c r="K22">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I22,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3508,7 +3513,7 @@
       </c>
       <c r="L22" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>379.88990000000001</v>
+        <v>188.65570000000002</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -3544,7 +3549,7 @@
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>109.01519999999999</v>
+        <v>297.11020000000002</v>
       </c>
       <c r="K23">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I23,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3552,7 +3557,7 @@
       </c>
       <c r="L23" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>390.98480000000001</v>
+        <v>202.88979999999998</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -3588,7 +3593,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>34.859299999999998</v>
+        <v>162.75659999999999</v>
       </c>
       <c r="K24">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I24,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3596,7 +3601,7 @@
       </c>
       <c r="L24" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>165.14070000000001</v>
+        <v>37.243400000000008</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -4028,7 +4033,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>118.7256</v>
+        <v>338.01510000000002</v>
       </c>
       <c r="K34">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I34,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4036,7 +4041,7 @@
       </c>
       <c r="L34" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>181.27440000000001</v>
+        <v>-38.015100000000018</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -4072,7 +4077,7 @@
       </c>
       <c r="J35">
         <f t="shared" ref="J35:J39" si="4">SUMIFS($D$2:$D$100000,$E$2:$E$100000,"买入",$B$2:$B$100000,"="&amp;I35)/10000</f>
-        <v>80.186099999999996</v>
+        <v>456.29230000000001</v>
       </c>
       <c r="K35">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I35,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4080,7 +4085,7 @@
       </c>
       <c r="L35" s="17">
         <f t="shared" ref="L35:L39" ca="1" si="5">K35-J35</f>
-        <v>719.81389999999999</v>
+        <v>343.70769999999999</v>
       </c>
       <c r="N35">
         <f t="shared" ref="N35:N39" si="6">SUMIFS($C$2:$C$100000,$E$2:$E$100000,"卖出",$B$2:$B$100000,"="&amp;I35)</f>
@@ -4160,7 +4165,7 @@
       </c>
       <c r="J37">
         <f t="shared" si="4"/>
-        <v>45.588603000000006</v>
+        <v>156.44298800000001</v>
       </c>
       <c r="K37">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I37,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4168,7 +4173,7 @@
       </c>
       <c r="L37" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>604.41139699999997</v>
+        <v>493.55701199999999</v>
       </c>
       <c r="N37">
         <f t="shared" si="6"/>
@@ -4216,7 +4221,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="O38">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I38,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4224,7 +4229,7 @@
       </c>
       <c r="P38" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-2300</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -4248,7 +4253,7 @@
       </c>
       <c r="J39">
         <f t="shared" si="4"/>
-        <v>33.592300000000002</v>
+        <v>88.684100000000001</v>
       </c>
       <c r="K39">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I39,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4256,7 +4261,7 @@
       </c>
       <c r="L39" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>666.40769999999998</v>
+        <v>611.31590000000006</v>
       </c>
       <c r="N39">
         <f t="shared" si="6"/>
@@ -5373,6 +5378,176 @@
         <v>152336.22</v>
       </c>
       <c r="E104" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="11">
+        <v>300782</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" s="15">
+        <v>3500</v>
+      </c>
+      <c r="D105" s="15">
+        <v>1278973</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="11">
+        <v>300450</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="15">
+        <v>24000</v>
+      </c>
+      <c r="D106" s="14">
+        <v>1912342</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="11">
+        <v>300059</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C107" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D107" s="15">
+        <v>345520</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="11">
+        <v>2487</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" s="15">
+        <v>40000</v>
+      </c>
+      <c r="D108" s="15">
+        <v>1880950</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="11">
+        <v>688133</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" s="14">
+        <v>4500</v>
+      </c>
+      <c r="D109" s="14">
+        <v>1108543.8500000001</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="7">
+        <v>603799</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C110" s="15">
+        <v>-2300</v>
+      </c>
+      <c r="D110" s="15">
+        <v>-291364</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="11">
+        <v>603290</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" s="15">
+        <v>1200</v>
+      </c>
+      <c r="D111" s="14">
+        <v>550918</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="11">
+        <v>600885</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C112" s="15">
+        <v>7000</v>
+      </c>
+      <c r="D112" s="15">
+        <v>510932</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="7">
+        <v>600436</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C113" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D113" s="14">
+        <v>2192895</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C114" s="15">
+        <v>20000</v>
+      </c>
+      <c r="D114" s="14">
+        <v>3761062</v>
+      </c>
+      <c r="E114" s="8" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5396,7 +5571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7774697-FE8A-4B07-B677-4EF890CC868A}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>

--- a/桌面/抗通胀/流程额度.xlsx
+++ b/桌面/抗通胀/流程额度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\抗通胀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE8FC2C-5C2E-4007-BB86-8417B3F3C0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49075DB-193E-4903-990D-4F74B8582286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基金额度" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">股票额度!$A$1:$I$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基金额度!$A$1:$H$97</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="280">
   <si>
     <t>代码</t>
   </si>
@@ -843,6 +843,87 @@
   <si>
     <t>安心稳健增利</t>
   </si>
+  <si>
+    <t>九洲药业</t>
+  </si>
+  <si>
+    <t>璞泰来</t>
+  </si>
+  <si>
+    <t>舜宇光学科技</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>600885</t>
+  </si>
+  <si>
+    <t>601689</t>
+  </si>
+  <si>
+    <t>603290</t>
+  </si>
+  <si>
+    <t>603456</t>
+  </si>
+  <si>
+    <t>603659</t>
+  </si>
+  <si>
+    <t>688050</t>
+  </si>
+  <si>
+    <t>688202</t>
+  </si>
+  <si>
+    <t>000799</t>
+  </si>
+  <si>
+    <t>002241</t>
+  </si>
+  <si>
+    <t>002245</t>
+  </si>
+  <si>
+    <t>002812</t>
+  </si>
+  <si>
+    <t>002821</t>
+  </si>
+  <si>
+    <t>002850</t>
+  </si>
+  <si>
+    <t>300014</t>
+  </si>
+  <si>
+    <t>300059</t>
+  </si>
+  <si>
+    <t>300274</t>
+  </si>
+  <si>
+    <t>300363</t>
+  </si>
+  <si>
+    <t>300750</t>
+  </si>
+  <si>
+    <t>300759</t>
+  </si>
+  <si>
+    <t>300782</t>
+  </si>
+  <si>
+    <t>300811</t>
+  </si>
+  <si>
+    <t>2382.HK</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -854,7 +935,7 @@
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,6 +1025,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1091,7 +1178,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2552,10 +2649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2713,7 +2810,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>195.02770000000001</v>
+        <v>409.32670000000002</v>
       </c>
       <c r="K4">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I4,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -2721,7 +2818,7 @@
       </c>
       <c r="L4" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>604.97230000000002</v>
+        <v>390.67329999999998</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -2757,7 +2854,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>235.75989999999999</v>
+        <v>604.70360000000005</v>
       </c>
       <c r="K5">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I5,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -2765,7 +2862,7 @@
       </c>
       <c r="L5" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>414.24009999999998</v>
+        <v>45.296399999999949</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -2801,7 +2898,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>160.15</v>
+        <v>508.97719999999998</v>
       </c>
       <c r="K6">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I6,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -2809,7 +2906,7 @@
       </c>
       <c r="L6" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>289.85000000000002</v>
+        <v>-58.977199999999982</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -2845,7 +2942,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>167.8092</v>
+        <v>354.99369999999999</v>
       </c>
       <c r="K7">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I7,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -2853,7 +2950,7 @@
       </c>
       <c r="L7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>332.19079999999997</v>
+        <v>145.00630000000001</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -2933,7 +3030,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>189.14689999999999</v>
+        <v>348.61250000000001</v>
       </c>
       <c r="K9">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I9,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -2941,7 +3038,7 @@
       </c>
       <c r="L9" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>160.85310000000001</v>
+        <v>1.3874999999999886</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -3065,7 +3162,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>169.45160000000001</v>
+        <v>439.71069999999997</v>
       </c>
       <c r="K12">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I12,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3073,7 +3170,7 @@
       </c>
       <c r="L12" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>280.54840000000002</v>
+        <v>10.289300000000026</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -3109,7 +3206,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>269.43009999999998</v>
+        <v>724.09400000000005</v>
       </c>
       <c r="K13">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I13,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3117,7 +3214,7 @@
       </c>
       <c r="L13" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>530.56989999999996</v>
+        <v>75.905999999999949</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -3153,7 +3250,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>382.27600000000001</v>
+        <v>780.6848</v>
       </c>
       <c r="K14">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I14,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3161,7 +3258,7 @@
       </c>
       <c r="L14" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>667.72399999999993</v>
+        <v>269.3152</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -3329,7 +3426,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>140.6831</v>
+        <v>271.4973</v>
       </c>
       <c r="K18">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I18,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3337,7 +3434,7 @@
       </c>
       <c r="L18" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>359.31690000000003</v>
+        <v>228.5027</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -3461,7 +3558,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>170.9633</v>
+        <v>281.39679999999998</v>
       </c>
       <c r="K21">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I21,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3469,7 +3566,7 @@
       </c>
       <c r="L21" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>329.0367</v>
+        <v>218.60320000000002</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -3605,7 +3702,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4500</v>
       </c>
       <c r="O24">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I24,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3613,7 +3710,7 @@
       </c>
       <c r="P24" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>-1000</v>
+        <v>-5500</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -3725,7 +3822,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>110.8201</v>
+        <v>355.88819999999998</v>
       </c>
       <c r="K27">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I27,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3733,7 +3830,7 @@
       </c>
       <c r="L27" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>189.1799</v>
+        <v>-55.888199999999983</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -3869,7 +3966,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
-        <v>-10400</v>
+        <v>-16600</v>
       </c>
       <c r="O30">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I30,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3877,7 +3974,7 @@
       </c>
       <c r="P30" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>-16600</v>
+        <v>-22800</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -3901,7 +3998,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>109.04819999999999</v>
+        <v>272.32889999999998</v>
       </c>
       <c r="K31">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I31,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3909,7 +4006,7 @@
       </c>
       <c r="L31" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>590.95180000000005</v>
+        <v>427.67110000000002</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -3945,7 +4042,7 @@
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>82.086891000000008</v>
+        <v>174.50011099999998</v>
       </c>
       <c r="K32">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I32,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3953,7 +4050,7 @@
       </c>
       <c r="L32" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>117.91310899999999</v>
+        <v>25.499889000000024</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -4001,7 +4098,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="O33">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I33,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4009,7 +4106,7 @@
       </c>
       <c r="P33" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-2400</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -4089,7 +4186,7 @@
       </c>
       <c r="N35">
         <f t="shared" ref="N35:N39" si="6">SUMIFS($C$2:$C$100000,$E$2:$E$100000,"卖出",$B$2:$B$100000,"="&amp;I35)</f>
-        <v>0</v>
+        <v>-9000</v>
       </c>
       <c r="O35">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I35,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4097,7 +4194,7 @@
       </c>
       <c r="P35" s="18">
         <f t="shared" ref="P35:P39" ca="1" si="7">N35-O35</f>
-        <v>0</v>
+        <v>-9000</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -4253,7 +4350,7 @@
       </c>
       <c r="J39">
         <f t="shared" si="4"/>
-        <v>88.684100000000001</v>
+        <v>111.99379999999999</v>
       </c>
       <c r="K39">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I39,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4261,7 +4358,7 @@
       </c>
       <c r="L39" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>611.31590000000006</v>
+        <v>588.00620000000004</v>
       </c>
       <c r="N39">
         <f t="shared" si="6"/>
@@ -4292,6 +4389,33 @@
       <c r="E40" s="7" t="s">
         <v>198</v>
       </c>
+      <c r="I40" t="s">
+        <v>254</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J40:J43" si="8">SUMIFS($D$2:$D$100000,$E$2:$E$100000,"买入",$B$2:$B$100000,"="&amp;I40)/10000</f>
+        <v>152.01310000000001</v>
+      </c>
+      <c r="K40">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I40,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="17">
+        <f t="shared" ref="L40:L43" ca="1" si="9">K40-J40</f>
+        <v>-152.01310000000001</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ref="N40:N43" si="10">SUMIFS($C$2:$C$100000,$E$2:$E$100000,"卖出",$B$2:$B$100000,"="&amp;I40)</f>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I40,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="18">
+        <f t="shared" ref="P40:P43" ca="1" si="11">N40-O40</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
@@ -4309,6 +4433,33 @@
       <c r="E41" s="7" t="s">
         <v>198</v>
       </c>
+      <c r="I41" t="s">
+        <v>255</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="8"/>
+        <v>78.995231000000004</v>
+      </c>
+      <c r="K41">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I41,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="17">
+        <f t="shared" ca="1" si="9"/>
+        <v>-78.995231000000004</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I41,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="18">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
@@ -4326,6 +4477,33 @@
       <c r="E42" s="7" t="s">
         <v>199</v>
       </c>
+      <c r="I42" t="s">
+        <v>178</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="8"/>
+        <v>32.0428</v>
+      </c>
+      <c r="K42">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I42,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <v>650</v>
+      </c>
+      <c r="L42" s="17">
+        <f t="shared" ca="1" si="9"/>
+        <v>617.95720000000006</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I42,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="18">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
@@ -4343,6 +4521,33 @@
       <c r="E43" s="7" t="s">
         <v>198</v>
       </c>
+      <c r="I43" t="s">
+        <v>246</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="8"/>
+        <v>87.1477</v>
+      </c>
+      <c r="K43">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I43,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <v>200</v>
+      </c>
+      <c r="L43" s="17">
+        <f t="shared" ca="1" si="9"/>
+        <v>112.8523</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I43,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="18">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
@@ -5551,10 +5756,389 @@
         <v>198</v>
       </c>
     </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C115" s="15">
+        <v>15000</v>
+      </c>
+      <c r="D115" s="15">
+        <v>1104335</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C116" s="15">
+        <v>54000</v>
+      </c>
+      <c r="D116" s="14">
+        <v>3488272</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C117" s="15">
+        <v>500</v>
+      </c>
+      <c r="D117" s="15">
+        <v>233097</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C118" s="15">
+        <v>25000</v>
+      </c>
+      <c r="D118" s="15">
+        <v>1520131</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" s="15">
+        <v>4000</v>
+      </c>
+      <c r="D119" s="14">
+        <v>789952.31</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C120" s="15">
+        <v>-2400</v>
+      </c>
+      <c r="D120" s="15">
+        <v>-586968</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C121" s="15">
+        <v>1500</v>
+      </c>
+      <c r="D121" s="15">
+        <v>924132.2</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C122" s="15">
+        <v>7000</v>
+      </c>
+      <c r="D122" s="14">
+        <v>1632807</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="15">
+        <v>-6200</v>
+      </c>
+      <c r="D123" s="15">
+        <v>-320298</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C124" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D124" s="15">
+        <v>320428</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C125" s="15">
+        <v>8000</v>
+      </c>
+      <c r="D125" s="14">
+        <v>2142990</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C126" s="15">
+        <v>2500</v>
+      </c>
+      <c r="D126" s="15">
+        <v>1308142</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C127" s="15">
+        <v>15000</v>
+      </c>
+      <c r="D127" s="15">
+        <v>2702591</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C128" s="15">
+        <v>30000</v>
+      </c>
+      <c r="D128" s="14">
+        <v>4546639</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C129" s="15">
+        <v>46000</v>
+      </c>
+      <c r="D129" s="15">
+        <v>1594656</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C130" s="15">
+        <v>23800</v>
+      </c>
+      <c r="D130" s="15">
+        <v>3689437</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C131" s="15">
+        <v>25000</v>
+      </c>
+      <c r="D131" s="14">
+        <v>2450681</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C132" s="15">
+        <v>6000</v>
+      </c>
+      <c r="D132" s="15">
+        <v>3984088</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C133" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D133" s="15">
+        <v>1871845</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C134" s="15">
+        <v>-4500</v>
+      </c>
+      <c r="D134" s="14">
+        <v>-1638721</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C135" s="15">
+        <v>8000</v>
+      </c>
+      <c r="D135" s="15">
+        <v>871477</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C136" s="15">
+        <v>-9000</v>
+      </c>
+      <c r="D136" s="15">
+        <v>-1730916</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L1:L39 P2:P39">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40:L43 P40:P43">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5571,7 +6155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7774697-FE8A-4B07-B677-4EF890CC868A}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>

--- a/桌面/抗通胀/流程额度.xlsx
+++ b/桌面/抗通胀/流程额度.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\抗通胀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49075DB-193E-4903-990D-4F74B8582286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5367636-0293-4071-B080-B3EE7BF658B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基金额度" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="304">
   <si>
     <t>代码</t>
   </si>
@@ -923,6 +923,78 @@
   <si>
     <t>卖出</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城科技</t>
+  </si>
+  <si>
+    <t>中鼎股份</t>
+  </si>
+  <si>
+    <t>山东药玻</t>
+  </si>
+  <si>
+    <t>赛轮轮胎</t>
+  </si>
+  <si>
+    <t>新洁能</t>
+  </si>
+  <si>
+    <t>璞泰莱</t>
+  </si>
+  <si>
+    <t>建龙微纳</t>
+  </si>
+  <si>
+    <t>天赐材料</t>
+  </si>
+  <si>
+    <t>诺唯赞</t>
+  </si>
+  <si>
+    <t>金斯瑞生物科技</t>
+  </si>
+  <si>
+    <t>中国电力</t>
+  </si>
+  <si>
+    <t>九州药业</t>
+  </si>
+  <si>
+    <t>603897.SH</t>
+  </si>
+  <si>
+    <t>000887.SZ</t>
+  </si>
+  <si>
+    <t>600529.SH</t>
+  </si>
+  <si>
+    <t>601058.SH</t>
+  </si>
+  <si>
+    <t>605111.SH</t>
+  </si>
+  <si>
+    <t>603659.SH</t>
+  </si>
+  <si>
+    <t>688357.SH</t>
+  </si>
+  <si>
+    <t>002709.SZ</t>
+  </si>
+  <si>
+    <t>688105.SH</t>
+  </si>
+  <si>
+    <t>1548.HK</t>
+  </si>
+  <si>
+    <t>2380.HK</t>
+  </si>
+  <si>
+    <t>603456.SH</t>
   </si>
 </sst>
 </file>
@@ -2651,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2914,11 +2986,11 @@
       </c>
       <c r="O6">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I6,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P6" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>-9300</v>
+        <v>-9800</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -2958,11 +3030,11 @@
       </c>
       <c r="O7">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I7,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>-3600</v>
+        <v>-3300</v>
       </c>
       <c r="P7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -3662,11 +3734,11 @@
       </c>
       <c r="O23">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I23,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P23" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -4058,11 +4130,11 @@
       </c>
       <c r="O32">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I32,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P32" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -4102,11 +4174,11 @@
       </c>
       <c r="O33">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I33,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P33" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>-2400</v>
+        <v>-2600</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -4146,11 +4218,11 @@
       </c>
       <c r="O34">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I34,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="P34" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -6153,15 +6225,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7774697-FE8A-4B07-B677-4EF890CC868A}">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9155,6 +9228,489 @@
         <v>217</v>
       </c>
       <c r="I104" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>292</v>
+      </c>
+      <c r="B105" t="s">
+        <v>280</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D105">
+        <v>500</v>
+      </c>
+      <c r="G105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I105" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>293</v>
+      </c>
+      <c r="B106" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D106">
+        <v>500</v>
+      </c>
+      <c r="G106" t="s">
+        <v>198</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I106" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>294</v>
+      </c>
+      <c r="B107" t="s">
+        <v>282</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107">
+        <v>500</v>
+      </c>
+      <c r="G107" t="s">
+        <v>198</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I107" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>295</v>
+      </c>
+      <c r="B108" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D108">
+        <v>300</v>
+      </c>
+      <c r="G108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I108" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>296</v>
+      </c>
+      <c r="B109" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D109">
+        <v>300</v>
+      </c>
+      <c r="G109" t="s">
+        <v>198</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I109" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>297</v>
+      </c>
+      <c r="B110" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D110">
+        <v>500</v>
+      </c>
+      <c r="G110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I110" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B111" t="s">
+        <v>168</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D111">
+        <v>500</v>
+      </c>
+      <c r="G111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I111" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>298</v>
+      </c>
+      <c r="B112" t="s">
+        <v>286</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D112">
+        <v>500</v>
+      </c>
+      <c r="G112" t="s">
+        <v>198</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I112" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>299</v>
+      </c>
+      <c r="B113" t="s">
+        <v>287</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D113">
+        <v>500</v>
+      </c>
+      <c r="G113" t="s">
+        <v>198</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I113" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>300</v>
+      </c>
+      <c r="B114" t="s">
+        <v>288</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D114">
+        <v>300</v>
+      </c>
+      <c r="G114" t="s">
+        <v>198</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I114" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>301</v>
+      </c>
+      <c r="B115" t="s">
+        <v>289</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D115">
+        <v>300</v>
+      </c>
+      <c r="G115" t="s">
+        <v>198</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I115" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D116">
+        <v>300</v>
+      </c>
+      <c r="G116" t="s">
+        <v>198</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I116" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>302</v>
+      </c>
+      <c r="B117" t="s">
+        <v>290</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D117">
+        <v>300</v>
+      </c>
+      <c r="G117" t="s">
+        <v>198</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I117" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>303</v>
+      </c>
+      <c r="B118" t="s">
+        <v>291</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D118">
+        <v>500</v>
+      </c>
+      <c r="G118" t="s">
+        <v>198</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I118" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>240</v>
+      </c>
+      <c r="B119" t="s">
+        <v>196</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D119">
+        <v>200</v>
+      </c>
+      <c r="G119" t="s">
+        <v>199</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I119" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>195</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D120">
+        <v>200</v>
+      </c>
+      <c r="G120" t="s">
+        <v>199</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I120" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>106</v>
+      </c>
+      <c r="B121" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D121">
+        <v>300</v>
+      </c>
+      <c r="G121" t="s">
+        <v>199</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I121" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D122">
+        <v>500</v>
+      </c>
+      <c r="G122" t="s">
+        <v>199</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I122" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>299</v>
+      </c>
+      <c r="B123" t="s">
+        <v>287</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D123">
+        <v>500</v>
+      </c>
+      <c r="G123" t="s">
+        <v>199</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I123" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>108</v>
+      </c>
+      <c r="B124" t="s">
+        <v>109</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D124">
+        <v>500</v>
+      </c>
+      <c r="G124" t="s">
+        <v>199</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I124" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>236</v>
+      </c>
+      <c r="B125" t="s">
+        <v>197</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D125">
+        <v>150</v>
+      </c>
+      <c r="G125" t="s">
+        <v>199</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I125" s="2">
         <v>44561</v>
       </c>
     </row>

--- a/桌面/抗通胀/流程额度.xlsx
+++ b/桌面/抗通胀/流程额度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\抗通胀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5367636-0293-4071-B080-B3EE7BF658B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EA4D85-F5C0-47FC-B104-BED84B2CC55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基金额度" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">股票额度!$A$1:$I$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基金额度!$A$1:$H$97</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="312">
   <si>
     <t>代码</t>
   </si>
@@ -995,6 +995,38 @@
   </si>
   <si>
     <t>603456.SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515030.SH </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新能车ETF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">515790.SH </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>光伏ETF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>516160.SH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新能源ETF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>516880.SH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>光伏50ETF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1113,7 +1145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1162,6 +1194,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1174,7 +1217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,6 +1285,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1544,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1589,26 +1638,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1500</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1500</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f>D2-E2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>44525</v>
       </c>
     </row>
@@ -1628,8 +1677,8 @@
       <c r="E3" s="1">
         <v>1000</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F38" si="0">D3-E3</f>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F46" si="0">D3-E3</f>
         <v>500</v>
       </c>
       <c r="G3" s="3">
@@ -1652,7 +1701,7 @@
       <c r="E4" s="1">
         <v>1000</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
@@ -1661,122 +1710,122 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>300</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>256.60000000000002</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>43.399999999999977</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>44520</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>300</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>43.8</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>256.2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>44520</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>300</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>284.7</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>15.300000000000011</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>44520</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>300</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>299.5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>44520</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>500</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>200</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>44520</v>
       </c>
       <c r="H9" t="s">
@@ -1784,26 +1833,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>500</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>450</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>44520</v>
       </c>
       <c r="H10" t="s">
@@ -1811,26 +1860,26 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>500</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>400</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>44520</v>
       </c>
       <c r="H11" t="s">
@@ -1838,68 +1887,70 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>300</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>300</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>44525</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>300</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>44525</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>300</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>44525</v>
       </c>
     </row>
@@ -1917,7 +1968,7 @@
         <v>500</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15">
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
@@ -1929,23 +1980,24 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>500</v>
       </c>
-      <c r="F16">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>44525</v>
       </c>
       <c r="H16" t="s">
@@ -1968,7 +2020,7 @@
       <c r="E17" s="1">
         <v>200</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
@@ -1992,7 +2044,7 @@
       <c r="D18" s="1">
         <v>500</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
@@ -2028,7 +2080,7 @@
         <v>500</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19">
+      <c r="F19" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
@@ -2523,7 +2575,7 @@
         <v>500</v>
       </c>
       <c r="F39">
-        <f t="shared" ref="F39:F43" si="1">D39-E39</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="G39" s="2">
@@ -2547,7 +2599,7 @@
         <v>1000</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="G40" s="2">
@@ -2571,7 +2623,7 @@
         <v>100</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G41" s="2">
@@ -2595,7 +2647,7 @@
         <v>300</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
@@ -2619,7 +2671,7 @@
         <v>100</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G43" s="2">
@@ -2640,7 +2692,8 @@
         <v>1000</v>
       </c>
       <c r="E44" s="20"/>
-      <c r="F44" s="21">
+      <c r="F44">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="G44" s="22">
@@ -2662,7 +2715,8 @@
         <v>1000</v>
       </c>
       <c r="E45" s="20"/>
-      <c r="F45" s="21">
+      <c r="F45">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="G45" s="22">
@@ -2670,13 +2724,97 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="4">
+        <v>300</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G46" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D47" s="4">
+        <v>300</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47:F49" si="1">D47-E47</f>
+        <v>300</v>
+      </c>
+      <c r="G47" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="4">
+        <v>300</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G48" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D49" s="4">
+        <v>300</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G49" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H52" s="4"/>
     </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H62" s="4"/>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.2">
@@ -2721,10 +2859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P136"/>
+  <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2882,7 +3020,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>409.32670000000002</v>
+        <v>460.72750000000002</v>
       </c>
       <c r="K4">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I4,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -2890,7 +3028,7 @@
       </c>
       <c r="L4" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>390.67329999999998</v>
+        <v>339.27249999999998</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -3026,7 +3164,7 @@
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>-3600</v>
+        <v>-19200</v>
       </c>
       <c r="O7">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I7,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3034,7 +3172,7 @@
       </c>
       <c r="P7" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>-300</v>
+        <v>-15900</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -3322,7 +3460,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>780.6848</v>
+        <v>855.44709999999998</v>
       </c>
       <c r="K14">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I14,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3330,7 +3468,7 @@
       </c>
       <c r="L14" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>269.3152</v>
+        <v>194.55290000000002</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -4082,7 +4220,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-11900</v>
       </c>
       <c r="O31">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I31,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4090,7 +4228,7 @@
       </c>
       <c r="P31" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-11900</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -4126,7 +4264,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="O32">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I32,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4134,7 +4272,7 @@
       </c>
       <c r="P32" s="18">
         <f t="shared" ca="1" si="3"/>
-        <v>-200</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -4346,7 +4484,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="O37">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I37,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4354,7 +4492,7 @@
       </c>
       <c r="P37" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -4554,7 +4692,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="8"/>
-        <v>32.0428</v>
+        <v>163.47380000000001</v>
       </c>
       <c r="K42">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I42,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4562,7 +4700,7 @@
       </c>
       <c r="L42" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>617.95720000000006</v>
+        <v>486.52620000000002</v>
       </c>
       <c r="N42">
         <f t="shared" si="10"/>
@@ -6200,6 +6338,159 @@
       </c>
       <c r="E136" s="8" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="12">
+        <v>600529</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C137" s="24">
+        <v>70000</v>
+      </c>
+      <c r="D137" s="24">
+        <v>3127580</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="23">
+        <v>603897</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C138" s="24">
+        <v>25000</v>
+      </c>
+      <c r="D138" s="24">
+        <v>1560294</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="23">
+        <v>688133</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C139" s="24">
+        <v>-3000</v>
+      </c>
+      <c r="D139" s="24">
+        <v>-703595.45</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="23">
+        <v>688202</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C140" s="24">
+        <v>-2800</v>
+      </c>
+      <c r="D140" s="24">
+        <v>-1666082</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="23">
+        <v>799</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C141" s="24">
+        <v>-11900</v>
+      </c>
+      <c r="D141" s="24">
+        <v>-2669091</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="23">
+        <v>2245</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C142" s="24">
+        <v>40000</v>
+      </c>
+      <c r="D142" s="24">
+        <v>1314310</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="23">
+        <v>2812</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C143" s="24">
+        <v>2000</v>
+      </c>
+      <c r="D143" s="24">
+        <v>514008</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="23">
+        <v>300750</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C144" s="24">
+        <v>1100</v>
+      </c>
+      <c r="D144" s="24">
+        <v>747623</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="23">
+        <v>300759</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C145" s="24">
+        <v>-15600</v>
+      </c>
+      <c r="D145" s="24">
+        <v>-2904104</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -6227,8 +6518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7774697-FE8A-4B07-B677-4EF890CC868A}">
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/桌面/抗通胀/流程额度.xlsx
+++ b/桌面/抗通胀/流程额度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\抗通胀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EA4D85-F5C0-47FC-B104-BED84B2CC55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE32AF93-0999-4AFA-9619-5B21704E9562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基金额度" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="312">
   <si>
     <t>代码</t>
   </si>
@@ -1593,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A46" sqref="A46:G49"/>
     </sheetView>
   </sheetViews>
@@ -2861,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2943,7 +2943,7 @@
         <v>134.69310000000002</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N34" si="0">SUMIFS($C$2:$C$100000,$E$2:$E$100000,"卖出",$B$2:$B$100000,"="&amp;I2)</f>
+        <f t="shared" ref="N2" si="0">SUMIFS($C$2:$C$100000,$E$2:$E$100000,"卖出",$B$2:$B$100000,"="&amp;I2)</f>
         <v>-3000</v>
       </c>
       <c r="O2">
@@ -2975,7 +2975,7 @@
         <v>119</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J34" si="1">SUMIFS($D$2:$D$100000,$E$2:$E$100000,"买入",$B$2:$B$100000,"="&amp;I3)/10000</f>
+        <f t="shared" ref="J3:J45" si="1">SUMIFS($D$2:$D$100000,$E$2:$E$100000,"买入",$B$2:$B$100000,"="&amp;I3)/10000</f>
         <v>99.772836999999996</v>
       </c>
       <c r="K3">
@@ -2983,11 +2983,11 @@
         <v>200</v>
       </c>
       <c r="L3" s="17">
-        <f t="shared" ref="L3:L34" ca="1" si="2">K3-J3</f>
+        <f t="shared" ref="L3:L45" ca="1" si="2">K3-J3</f>
         <v>100.227163</v>
       </c>
       <c r="N3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N3:N45" si="3">SUMIFS($C$2:$C$100000,$E$2:$E$100000,"卖出",$B$2:$B$100000,"="&amp;I3)</f>
         <v>-19800</v>
       </c>
       <c r="O3">
@@ -2995,7 +2995,7 @@
         <v>-19800</v>
       </c>
       <c r="P3" s="18">
-        <f t="shared" ref="P3:P34" ca="1" si="3">N3-O3</f>
+        <f t="shared" ref="P3:P45" ca="1" si="4">N3-O3</f>
         <v>0</v>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
         <v>339.27249999999998</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-3600</v>
       </c>
       <c r="O4">
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-3600</v>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
         <v>45.296399999999949</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-4200</v>
       </c>
       <c r="O5">
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-4200</v>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
         <v>-58.977199999999982</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-9300</v>
       </c>
       <c r="O6">
@@ -3127,7 +3127,7 @@
         <v>500</v>
       </c>
       <c r="P6" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-9800</v>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
         <v>145.00630000000001</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-19200</v>
       </c>
       <c r="O7">
@@ -3171,7 +3171,7 @@
         <v>-3300</v>
       </c>
       <c r="P7" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-15900</v>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
         <v>99.712784999999997</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-35500</v>
       </c>
       <c r="O8">
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-35500</v>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
         <v>1.3874999999999886</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-15000</v>
       </c>
       <c r="O9">
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-15000</v>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
         <v>620.74014999999997</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-44000</v>
       </c>
       <c r="O10">
@@ -3303,7 +3303,7 @@
         <v>-44000</v>
       </c>
       <c r="P10" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
         <v>71.644000000000005</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-600</v>
       </c>
       <c r="O11">
@@ -3347,7 +3347,7 @@
         <v>-600</v>
       </c>
       <c r="P11" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
         <v>10.289300000000026</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-3800</v>
       </c>
       <c r="O12">
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-3800</v>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
         <v>75.905999999999949</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-3900</v>
       </c>
       <c r="O13">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-3900</v>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
         <v>194.55290000000002</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14">
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
         <v>18.719488999999996</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-8500</v>
       </c>
       <c r="O15">
@@ -3523,7 +3523,7 @@
         <v>-8500</v>
       </c>
       <c r="P15" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
         <v>198</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
@@ -3559,7 +3559,7 @@
         <v>140.49969999999999</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-19200</v>
       </c>
       <c r="O16">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-19200</v>
       </c>
     </row>
@@ -3603,7 +3603,7 @@
         <v>181.37900000000002</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-7500</v>
       </c>
       <c r="O17">
@@ -3611,7 +3611,7 @@
         <v>-7500</v>
       </c>
       <c r="P17" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3647,7 +3647,7 @@
         <v>228.5027</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O18">
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
         <v>141.29560000000001</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1900</v>
       </c>
       <c r="O19">
@@ -3699,7 +3699,7 @@
         <v>-1900</v>
       </c>
       <c r="P19" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3735,7 +3735,7 @@
         <v>200.0324</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-6200</v>
       </c>
       <c r="O20">
@@ -3743,7 +3743,7 @@
         <v>-6200</v>
       </c>
       <c r="P20" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
         <v>218.60320000000002</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-4000</v>
       </c>
       <c r="O21">
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-4000</v>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
         <v>188.65570000000002</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O22">
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
         <v>202.88979999999998</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O23">
@@ -3875,7 +3875,7 @@
         <v>500</v>
       </c>
       <c r="P23" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-500</v>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
         <v>37.243400000000008</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-4500</v>
       </c>
       <c r="O24">
@@ -3919,7 +3919,7 @@
         <v>1000</v>
       </c>
       <c r="P24" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-5500</v>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
         <v>470.4015</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1300</v>
       </c>
       <c r="O25">
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-1300</v>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
         <v>739.52390000000003</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2400</v>
       </c>
       <c r="O26">
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-2400</v>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
         <v>-55.888199999999983</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O27">
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
         <v>369.0009</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O28">
@@ -4095,7 +4095,7 @@
         <v>2900</v>
       </c>
       <c r="P28" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-2900</v>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
         <v>624.93409999999994</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-5900</v>
       </c>
       <c r="O29">
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-5900</v>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
         <v>210.18020000000001</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-16600</v>
       </c>
       <c r="O30">
@@ -4183,7 +4183,7 @@
         <v>6200</v>
       </c>
       <c r="P30" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-22800</v>
       </c>
     </row>
@@ -4219,7 +4219,7 @@
         <v>427.67110000000002</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-11900</v>
       </c>
       <c r="O31">
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-11900</v>
       </c>
     </row>
@@ -4263,7 +4263,7 @@
         <v>25.499889000000024</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2800</v>
       </c>
       <c r="O32">
@@ -4271,7 +4271,7 @@
         <v>200</v>
       </c>
       <c r="P32" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-3000</v>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
         <v>138.9605</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2400</v>
       </c>
       <c r="O33">
@@ -4315,7 +4315,7 @@
         <v>200</v>
       </c>
       <c r="P33" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-2600</v>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
         <v>-38.015100000000018</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O34">
@@ -4359,7 +4359,7 @@
         <v>150</v>
       </c>
       <c r="P34" s="18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-150</v>
       </c>
     </row>
@@ -4383,7 +4383,7 @@
         <v>184</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:J39" si="4">SUMIFS($D$2:$D$100000,$E$2:$E$100000,"买入",$B$2:$B$100000,"="&amp;I35)/10000</f>
+        <f t="shared" si="1"/>
         <v>456.29230000000001</v>
       </c>
       <c r="K35">
@@ -4391,11 +4391,11 @@
         <v>800</v>
       </c>
       <c r="L35" s="17">
-        <f t="shared" ref="L35:L39" ca="1" si="5">K35-J35</f>
+        <f t="shared" ca="1" si="2"/>
         <v>343.70769999999999</v>
       </c>
       <c r="N35">
-        <f t="shared" ref="N35:N39" si="6">SUMIFS($C$2:$C$100000,$E$2:$E$100000,"卖出",$B$2:$B$100000,"="&amp;I35)</f>
+        <f t="shared" si="3"/>
         <v>-9000</v>
       </c>
       <c r="O35">
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="18">
-        <f t="shared" ref="P35:P39" ca="1" si="7">N35-O35</f>
+        <f t="shared" ca="1" si="4"/>
         <v>-9000</v>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
         <v>188</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>30.154199999999999</v>
       </c>
       <c r="K36">
@@ -4435,11 +4435,11 @@
         <v>600</v>
       </c>
       <c r="L36" s="17">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>569.84580000000005</v>
       </c>
       <c r="N36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O36">
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="18">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
         <v>190</v>
       </c>
       <c r="J37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>156.44298800000001</v>
       </c>
       <c r="K37">
@@ -4479,11 +4479,11 @@
         <v>650</v>
       </c>
       <c r="L37" s="17">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>493.55701199999999</v>
       </c>
       <c r="N37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-3000</v>
       </c>
       <c r="O37">
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="18">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-3000</v>
       </c>
     </row>
@@ -4515,7 +4515,7 @@
         <v>174</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>29.7974</v>
       </c>
       <c r="K38">
@@ -4523,11 +4523,11 @@
         <v>500</v>
       </c>
       <c r="L38" s="17">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>470.20260000000002</v>
       </c>
       <c r="N38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-2300</v>
       </c>
       <c r="O38">
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="18">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-2300</v>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
         <v>125</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>111.99379999999999</v>
       </c>
       <c r="K39">
@@ -4567,11 +4567,11 @@
         <v>700</v>
       </c>
       <c r="L39" s="17">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>588.00620000000004</v>
       </c>
       <c r="N39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O39">
@@ -4579,7 +4579,7 @@
         <v>700</v>
       </c>
       <c r="P39" s="18">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-700</v>
       </c>
     </row>
@@ -4603,7 +4603,7 @@
         <v>254</v>
       </c>
       <c r="J40">
-        <f t="shared" ref="J40:J43" si="8">SUMIFS($D$2:$D$100000,$E$2:$E$100000,"买入",$B$2:$B$100000,"="&amp;I40)/10000</f>
+        <f t="shared" si="1"/>
         <v>152.01310000000001</v>
       </c>
       <c r="K40">
@@ -4611,11 +4611,11 @@
         <v>0</v>
       </c>
       <c r="L40" s="17">
-        <f t="shared" ref="L40:L43" ca="1" si="9">K40-J40</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-152.01310000000001</v>
       </c>
       <c r="N40">
-        <f t="shared" ref="N40:N43" si="10">SUMIFS($C$2:$C$100000,$E$2:$E$100000,"卖出",$B$2:$B$100000,"="&amp;I40)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O40">
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="18">
-        <f t="shared" ref="P40:P43" ca="1" si="11">N40-O40</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
         <v>255</v>
       </c>
       <c r="J41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>78.995231000000004</v>
       </c>
       <c r="K41">
@@ -4655,11 +4655,11 @@
         <v>0</v>
       </c>
       <c r="L41" s="17">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-78.995231000000004</v>
       </c>
       <c r="N41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O41">
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="18">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
         <v>178</v>
       </c>
       <c r="J42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>163.47380000000001</v>
       </c>
       <c r="K42">
@@ -4699,11 +4699,11 @@
         <v>650</v>
       </c>
       <c r="L42" s="17">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="2"/>
         <v>486.52620000000002</v>
       </c>
       <c r="N42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O42">
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="18">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4735,7 +4735,7 @@
         <v>246</v>
       </c>
       <c r="J43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>87.1477</v>
       </c>
       <c r="K43">
@@ -4743,11 +4743,11 @@
         <v>200</v>
       </c>
       <c r="L43" s="17">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="2"/>
         <v>112.8523</v>
       </c>
       <c r="N43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O43">
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="18">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4775,6 +4775,33 @@
       <c r="E44" s="7" t="s">
         <v>198</v>
       </c>
+      <c r="I44" t="s">
+        <v>282</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>312.75799999999998</v>
+      </c>
+      <c r="K44">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I44,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <v>500</v>
+      </c>
+      <c r="L44" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>187.24200000000002</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I44,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="18">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
@@ -4792,6 +4819,33 @@
       <c r="E45" s="7" t="s">
         <v>198</v>
       </c>
+      <c r="I45" t="s">
+        <v>280</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>156.02940000000001</v>
+      </c>
+      <c r="K45">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I45,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <v>500</v>
+      </c>
+      <c r="L45" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>343.97059999999999</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I45,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="18">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
@@ -6495,7 +6549,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="L1:L39 P2:P39">
+  <conditionalFormatting sqref="L1:L45 P2:P45">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/桌面/抗通胀/流程额度.xlsx
+++ b/桌面/抗通胀/流程额度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\抗通胀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE32AF93-0999-4AFA-9619-5B21704E9562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA36423-C01A-40C9-A7AE-E017782CC1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">股票额度!$A$1:$I$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基金额度!$A$1:$H$97</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="320">
   <si>
     <t>代码</t>
   </si>
@@ -1027,6 +1027,33 @@
   <si>
     <t>光伏50ETF</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>600436</t>
+  </si>
+  <si>
+    <t>600529</t>
+  </si>
+  <si>
+    <t>600563</t>
+  </si>
+  <si>
+    <t>603897</t>
+  </si>
+  <si>
+    <t>688133</t>
+  </si>
+  <si>
+    <t>002821</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯莱英</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1217,7 +1244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1293,13 +1320,29 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1593,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:G49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2254,11 +2297,11 @@
         <v>500</v>
       </c>
       <c r="E26">
-        <v>200.6</v>
+        <v>245.6</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>299.39999999999998</v>
+        <v>254.4</v>
       </c>
       <c r="G26" s="5">
         <v>44534</v>
@@ -2349,11 +2392,11 @@
         <v>500</v>
       </c>
       <c r="E30">
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G30" s="5">
         <v>44534</v>
@@ -2668,11 +2711,11 @@
         <v>300</v>
       </c>
       <c r="E43">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="G43" s="2">
         <v>44561</v>
@@ -2737,9 +2780,12 @@
       <c r="D46" s="4">
         <v>300</v>
       </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G46" s="2">
         <v>44561</v>
@@ -2758,9 +2804,12 @@
       <c r="D47" s="4">
         <v>300</v>
       </c>
+      <c r="E47">
+        <v>45</v>
+      </c>
       <c r="F47">
         <f t="shared" ref="F47:F49" si="1">D47-E47</f>
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="G47" s="2">
         <v>44561</v>
@@ -2859,10 +2908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P145"/>
+  <dimension ref="A1:S155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2875,7 +2924,7 @@
     <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>200</v>
       </c>
@@ -2910,8 +2959,11 @@
       <c r="P1" s="9" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S1" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>300454</v>
       </c>
@@ -2954,8 +3006,11 @@
         <f ca="1">N2-O2</f>
         <v>-3000</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S2" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>600036</v>
       </c>
@@ -2998,8 +3053,11 @@
         <f t="shared" ref="P3:P45" ca="1" si="4">N3-O3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S3" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2812</v>
       </c>
@@ -3042,8 +3100,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-3600</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S4" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>300274</v>
       </c>
@@ -3064,7 +3125,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>604.70360000000005</v>
+        <v>764.45429999999999</v>
       </c>
       <c r="K5">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I5,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3072,7 +3133,7 @@
       </c>
       <c r="L5" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45.296399999999949</v>
+        <v>-114.45429999999999</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
@@ -3086,8 +3147,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-4200</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S5" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>601689</v>
       </c>
@@ -3130,8 +3194,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-9800</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S6" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>300759</v>
       </c>
@@ -3174,8 +3241,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-15900</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S7" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>2714</v>
       </c>
@@ -3218,8 +3288,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-35500</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S8" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>300059</v>
       </c>
@@ -3262,8 +3335,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-15000</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S9" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>600887</v>
       </c>
@@ -3306,8 +3382,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S10" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>700</v>
       </c>
@@ -3350,8 +3429,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S11" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>2850</v>
       </c>
@@ -3394,8 +3476,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-3800</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S12" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>300014</v>
       </c>
@@ -3438,8 +3523,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-3900</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S13" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>300750</v>
       </c>
@@ -3482,8 +3570,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S14" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>2812</v>
       </c>
@@ -3526,8 +3617,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S15" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>600036</v>
       </c>
@@ -3570,8 +3664,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-19200</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S16" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>600887</v>
       </c>
@@ -3614,8 +3711,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S17" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>2714</v>
       </c>
@@ -3636,7 +3736,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>271.4973</v>
+        <v>321.30090000000001</v>
       </c>
       <c r="K18">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I18,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3644,7 +3744,7 @@
       </c>
       <c r="L18" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>228.5027</v>
+        <v>178.69909999999999</v>
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
@@ -3658,8 +3758,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S18" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2850</v>
       </c>
@@ -3702,8 +3805,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S19" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>2269</v>
       </c>
@@ -3746,8 +3852,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S20" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>2812</v>
       </c>
@@ -3768,7 +3877,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>281.39679999999998</v>
+        <v>317.89159999999998</v>
       </c>
       <c r="K21">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I21,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -3776,7 +3885,7 @@
       </c>
       <c r="L21" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>218.60320000000002</v>
+        <v>182.10840000000002</v>
       </c>
       <c r="N21">
         <f t="shared" si="3"/>
@@ -3790,8 +3899,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-4000</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S21" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>601689</v>
       </c>
@@ -3834,8 +3946,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S22" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>600887</v>
       </c>
@@ -3878,8 +3993,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-500</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S23" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>300454</v>
       </c>
@@ -3922,8 +4040,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-5500</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S24" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>300014</v>
       </c>
@@ -3966,8 +4087,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-1300</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S25" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>2269</v>
       </c>
@@ -4010,8 +4134,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-2400</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>2714</v>
       </c>
@@ -4054,8 +4181,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S27" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>300274</v>
       </c>
@@ -4098,8 +4228,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-2900</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S28" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>300750</v>
       </c>
@@ -4142,8 +4275,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-5900</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S29" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>300759</v>
       </c>
@@ -4186,8 +4322,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-22800</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S30" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>600887</v>
       </c>
@@ -4230,8 +4369,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-11900</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S31" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>2001</v>
       </c>
@@ -4274,8 +4416,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-3000</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S32" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>2460</v>
       </c>
@@ -4318,8 +4463,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-2600</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S33" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>300274</v>
       </c>
@@ -4352,7 +4500,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-7700</v>
       </c>
       <c r="O34">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I34,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4360,10 +4508,13 @@
       </c>
       <c r="P34" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-7850</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>2850</v>
       </c>
@@ -4406,8 +4557,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-9000</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S35" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>2821</v>
       </c>
@@ -4450,8 +4604,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S36" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>600809</v>
       </c>
@@ -4484,7 +4641,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="3"/>
-        <v>-3000</v>
+        <v>-6400</v>
       </c>
       <c r="O37">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I37,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4492,10 +4649,13 @@
       </c>
       <c r="P37" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-3000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-6400</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>300750</v>
       </c>
@@ -4538,8 +4698,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-2300</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S38" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>300496</v>
       </c>
@@ -4582,8 +4745,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>-700</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S39" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>300059</v>
       </c>
@@ -4626,8 +4792,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S40" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>300014</v>
       </c>
@@ -4648,7 +4817,7 @@
       </c>
       <c r="J41">
         <f t="shared" si="1"/>
-        <v>78.995231000000004</v>
+        <v>167.951731</v>
       </c>
       <c r="K41">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I41,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4656,7 +4825,7 @@
       </c>
       <c r="L41" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>-78.995231000000004</v>
+        <v>-167.951731</v>
       </c>
       <c r="N41">
         <f t="shared" si="3"/>
@@ -4670,8 +4839,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S41" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>2001</v>
       </c>
@@ -4714,8 +4886,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S42" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>600885</v>
       </c>
@@ -4758,8 +4933,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S43" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>300759</v>
       </c>
@@ -4792,7 +4970,7 @@
       </c>
       <c r="N44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-70000</v>
       </c>
       <c r="O44">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I44,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4800,10 +4978,13 @@
       </c>
       <c r="P44" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-70000</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>300750</v>
       </c>
@@ -4824,7 +5005,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
-        <v>156.02940000000001</v>
+        <v>218.2961</v>
       </c>
       <c r="K45">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I45,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
@@ -4832,7 +5013,7 @@
       </c>
       <c r="L45" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>343.97059999999999</v>
+        <v>281.70389999999998</v>
       </c>
       <c r="N45">
         <f t="shared" si="3"/>
@@ -4846,8 +5027,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S45" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>300496</v>
       </c>
@@ -4863,8 +5047,38 @@
       <c r="E46" s="7" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>131</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46:J47" si="5">SUMIFS($D$2:$D$100000,$E$2:$E$100000,"买入",$B$2:$B$100000,"="&amp;I46)/10000</f>
+        <v>195.89949999999999</v>
+      </c>
+      <c r="K46">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I46,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <v>900</v>
+      </c>
+      <c r="L46" s="17">
+        <f t="shared" ref="L46:L47" ca="1" si="6">K46-J46</f>
+        <v>704.10050000000001</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ref="N46:N47" si="7">SUMIFS($C$2:$C$100000,$E$2:$E$100000,"卖出",$B$2:$B$100000,"="&amp;I46)</f>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I46,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="18">
+        <f t="shared" ref="P46:P47" ca="1" si="8">N46-O46</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>300450</v>
       </c>
@@ -4880,8 +5094,38 @@
       <c r="E47" s="7" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>242</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>155.72561999999999</v>
+      </c>
+      <c r="K47">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I47,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <v>200</v>
+      </c>
+      <c r="L47" s="17">
+        <f t="shared" ca="1" si="6"/>
+        <v>44.274380000000008</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I47,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="18">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>300014</v>
       </c>
@@ -6531,30 +6775,205 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="23">
+      <c r="A145" s="11">
         <v>300759</v>
       </c>
-      <c r="B145" s="23" t="s">
+      <c r="B145" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C145" s="24">
+      <c r="C145" s="15">
         <v>-15600</v>
       </c>
-      <c r="D145" s="24">
+      <c r="D145" s="14">
         <v>-2904104</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C146" s="15">
+        <v>-7700</v>
+      </c>
+      <c r="D146" s="15">
+        <v>-3367073.9</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C147" s="15">
+        <v>-70000</v>
+      </c>
+      <c r="D147" s="15">
+        <v>-3050338</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C148" s="15">
+        <v>8000</v>
+      </c>
+      <c r="D148" s="14">
+        <v>1958995</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C149" s="15">
+        <v>5000</v>
+      </c>
+      <c r="D149" s="15">
+        <v>364948</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C150" s="15">
+        <v>5000</v>
+      </c>
+      <c r="D150" s="15">
+        <v>889565</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C151" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D151" s="14">
+        <v>622667</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C152" s="15">
+        <v>-3400</v>
+      </c>
+      <c r="D152" s="15">
+        <v>-778590.16</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C153" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D153" s="15">
+        <v>498036</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C154" s="24">
+        <v>10000</v>
+      </c>
+      <c r="D154" s="24">
+        <v>1597507</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="B155" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C155" s="24">
+        <v>90000</v>
+      </c>
+      <c r="D155" s="24">
+        <v>1557256.2</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L1:L45 P2:P45">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40:L43 P40:P43">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:L47 P46:P47">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/桌面/抗通胀/流程额度.xlsx
+++ b/桌面/抗通胀/流程额度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\抗通胀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA36423-C01A-40C9-A7AE-E017782CC1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D502C9E6-49C6-4BDF-ACDD-074700E05F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="股票额度" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">股票额度!$A$1:$I$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">股票额度!$A$1:$G$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基金额度!$A$1:$H$97</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="336">
   <si>
     <t>代码</t>
   </si>
@@ -1054,6 +1054,54 @@
   <si>
     <t>买入</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
+    <t>中科电气</t>
+  </si>
+  <si>
+    <t>鸣志电器</t>
+  </si>
+  <si>
+    <t>永新光学</t>
+  </si>
+  <si>
+    <t>保隆科技</t>
+  </si>
+  <si>
+    <t>爱普股份</t>
+  </si>
+  <si>
+    <t>贝斯特</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>603501.SH</t>
+  </si>
+  <si>
+    <t>300035.SZ</t>
+  </si>
+  <si>
+    <t>603728.SH</t>
+  </si>
+  <si>
+    <t>603297.SH</t>
+  </si>
+  <si>
+    <t>603197.SH</t>
+  </si>
+  <si>
+    <t>603020.SH</t>
+  </si>
+  <si>
+    <t>300580.SZ</t>
+  </si>
+  <si>
+    <t>600893.SH</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,12 +1367,6 @@
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2908,10 +2950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S155"/>
+  <dimension ref="A1:P155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2924,20 +2966,20 @@
     <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>204</v>
       </c>
       <c r="J1" s="9" t="s">
@@ -2959,24 +3001,21 @@
       <c r="P1" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="S1" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>300454</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>3000</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="15">
         <v>653069</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>198</v>
       </c>
       <c r="I2" t="s">
@@ -2987,7 +3026,7 @@
         <v>65.306899999999999</v>
       </c>
       <c r="K2">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I2,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I2,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>200</v>
       </c>
       <c r="L2" s="17">
@@ -2999,18 +3038,15 @@
         <v>-3000</v>
       </c>
       <c r="O2">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I2,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I2,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P2" s="18">
         <f ca="1">N2-O2</f>
         <v>-3000</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>600036</v>
       </c>
@@ -3034,7 +3070,7 @@
         <v>99.772836999999996</v>
       </c>
       <c r="K3">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I3,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I3,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>200</v>
       </c>
       <c r="L3" s="17">
@@ -3046,18 +3082,15 @@
         <v>-19800</v>
       </c>
       <c r="O3">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I3,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I3,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>-19800</v>
       </c>
       <c r="P3" s="18">
         <f t="shared" ref="P3:P45" ca="1" si="4">N3-O3</f>
         <v>0</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2812</v>
       </c>
@@ -3081,7 +3114,7 @@
         <v>460.72750000000002</v>
       </c>
       <c r="K4">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I4,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I4,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>800</v>
       </c>
       <c r="L4" s="17">
@@ -3093,18 +3126,15 @@
         <v>-3600</v>
       </c>
       <c r="O4">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I4,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I4,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P4" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>-3600</v>
       </c>
-      <c r="S4" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>300274</v>
       </c>
@@ -3128,7 +3158,7 @@
         <v>764.45429999999999</v>
       </c>
       <c r="K5">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I5,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I5,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>650</v>
       </c>
       <c r="L5" s="17">
@@ -3140,18 +3170,15 @@
         <v>-4200</v>
       </c>
       <c r="O5">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I5,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I5,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P5" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>-4200</v>
       </c>
-      <c r="S5" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>601689</v>
       </c>
@@ -3175,7 +3202,7 @@
         <v>508.97719999999998</v>
       </c>
       <c r="K6">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I6,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I6,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>450</v>
       </c>
       <c r="L6" s="17">
@@ -3187,18 +3214,15 @@
         <v>-9300</v>
       </c>
       <c r="O6">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I6,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>500</v>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I6,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>-500</v>
       </c>
       <c r="P6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-9800</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+        <v>-8800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>300759</v>
       </c>
@@ -3222,7 +3246,7 @@
         <v>354.99369999999999</v>
       </c>
       <c r="K7">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I7,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I7,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>500</v>
       </c>
       <c r="L7" s="17">
@@ -3234,18 +3258,15 @@
         <v>-19200</v>
       </c>
       <c r="O7">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I7,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>-3300</v>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I7,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>-3900</v>
       </c>
       <c r="P7" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-15900</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <v>-15300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>2714</v>
       </c>
@@ -3269,7 +3290,7 @@
         <v>200.287215</v>
       </c>
       <c r="K8">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I8,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I8,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>300</v>
       </c>
       <c r="L8" s="17">
@@ -3281,18 +3302,15 @@
         <v>-35500</v>
       </c>
       <c r="O8">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I8,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I8,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P8" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>-35500</v>
       </c>
-      <c r="S8" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>300059</v>
       </c>
@@ -3316,7 +3334,7 @@
         <v>348.61250000000001</v>
       </c>
       <c r="K9">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I9,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I9,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>350</v>
       </c>
       <c r="L9" s="17">
@@ -3328,18 +3346,15 @@
         <v>-15000</v>
       </c>
       <c r="O9">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I9,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I9,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P9" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>-15000</v>
       </c>
-      <c r="S9" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>600887</v>
       </c>
@@ -3363,7 +3378,7 @@
         <v>179.25985</v>
       </c>
       <c r="K10">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I10,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I10,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>800</v>
       </c>
       <c r="L10" s="17">
@@ -3375,18 +3390,15 @@
         <v>-44000</v>
       </c>
       <c r="O10">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I10,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I10,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>-44000</v>
       </c>
       <c r="P10" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="S10" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>700</v>
       </c>
@@ -3410,7 +3422,7 @@
         <v>28.356000000000002</v>
       </c>
       <c r="K11">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I11,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I11,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>100</v>
       </c>
       <c r="L11" s="17">
@@ -3422,18 +3434,15 @@
         <v>-600</v>
       </c>
       <c r="O11">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I11,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I11,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>-600</v>
       </c>
       <c r="P11" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="S11" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>2850</v>
       </c>
@@ -3457,7 +3466,7 @@
         <v>439.71069999999997</v>
       </c>
       <c r="K12">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I12,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I12,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>450</v>
       </c>
       <c r="L12" s="17">
@@ -3469,18 +3478,15 @@
         <v>-3800</v>
       </c>
       <c r="O12">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I12,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I12,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P12" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>-3800</v>
       </c>
-      <c r="S12" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>300014</v>
       </c>
@@ -3504,7 +3510,7 @@
         <v>724.09400000000005</v>
       </c>
       <c r="K13">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I13,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I13,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>800</v>
       </c>
       <c r="L13" s="17">
@@ -3516,18 +3522,15 @@
         <v>-3900</v>
       </c>
       <c r="O13">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I13,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I13,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P13" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>-3900</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>300750</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>855.44709999999998</v>
       </c>
       <c r="K14">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I14,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I14,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>1050</v>
       </c>
       <c r="L14" s="17">
@@ -3563,18 +3566,15 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I14,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I14,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P14" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="S14" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>2812</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>81.280511000000004</v>
       </c>
       <c r="K15">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I15,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I15,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>100</v>
       </c>
       <c r="L15" s="17">
@@ -3610,18 +3610,15 @@
         <v>-8500</v>
       </c>
       <c r="O15">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I15,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I15,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>-8500</v>
       </c>
       <c r="P15" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="S15" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>600036</v>
       </c>
@@ -3645,7 +3642,7 @@
         <v>59.500300000000003</v>
       </c>
       <c r="K16">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I16,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I16,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>200</v>
       </c>
       <c r="L16" s="17">
@@ -3657,18 +3654,15 @@
         <v>-19200</v>
       </c>
       <c r="O16">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I16,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I16,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P16" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>-19200</v>
       </c>
-      <c r="S16" s="25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>600887</v>
       </c>
@@ -3692,7 +3686,7 @@
         <v>118.621</v>
       </c>
       <c r="K17">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I17,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I17,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>300</v>
       </c>
       <c r="L17" s="17">
@@ -3704,18 +3698,15 @@
         <v>-7500</v>
       </c>
       <c r="O17">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I17,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I17,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>-7500</v>
       </c>
       <c r="P17" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="S17" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>2714</v>
       </c>
@@ -3739,7 +3730,7 @@
         <v>321.30090000000001</v>
       </c>
       <c r="K18">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I18,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I18,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>500</v>
       </c>
       <c r="L18" s="17">
@@ -3751,18 +3742,15 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I18,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>0</v>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I18,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>-500</v>
       </c>
       <c r="P18" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2850</v>
       </c>
@@ -3786,7 +3774,7 @@
         <v>58.7044</v>
       </c>
       <c r="K19">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I19,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I19,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>200</v>
       </c>
       <c r="L19" s="17">
@@ -3798,18 +3786,15 @@
         <v>-1900</v>
       </c>
       <c r="O19">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I19,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I19,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>-1900</v>
       </c>
       <c r="P19" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="S19" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>2269</v>
       </c>
@@ -3833,7 +3818,7 @@
         <v>99.967600000000004</v>
       </c>
       <c r="K20">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I20,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I20,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>300</v>
       </c>
       <c r="L20" s="17">
@@ -3845,18 +3830,15 @@
         <v>-6200</v>
       </c>
       <c r="O20">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I20,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I20,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>-6200</v>
       </c>
       <c r="P20" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="S20" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>2812</v>
       </c>
@@ -3880,7 +3862,7 @@
         <v>317.89159999999998</v>
       </c>
       <c r="K21">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I21,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I21,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>500</v>
       </c>
       <c r="L21" s="17">
@@ -3892,18 +3874,15 @@
         <v>-4000</v>
       </c>
       <c r="O21">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I21,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I21,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P21" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>-4000</v>
       </c>
-      <c r="S21" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>601689</v>
       </c>
@@ -3927,7 +3906,7 @@
         <v>311.34429999999998</v>
       </c>
       <c r="K22">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I22,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I22,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>500</v>
       </c>
       <c r="L22" s="17">
@@ -3939,18 +3918,15 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I22,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I22,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P22" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="S22" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>600887</v>
       </c>
@@ -3974,7 +3950,7 @@
         <v>297.11020000000002</v>
       </c>
       <c r="K23">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I23,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I23,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>500</v>
       </c>
       <c r="L23" s="17">
@@ -3986,18 +3962,15 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I23,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>500</v>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I23,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>-500</v>
       </c>
       <c r="P23" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-500</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>300454</v>
       </c>
@@ -4021,7 +3994,7 @@
         <v>162.75659999999999</v>
       </c>
       <c r="K24">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I24,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I24,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>200</v>
       </c>
       <c r="L24" s="17">
@@ -4033,18 +4006,15 @@
         <v>-4500</v>
       </c>
       <c r="O24">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I24,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>1000</v>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I24,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>-1000</v>
       </c>
       <c r="P24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-5500</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>300014</v>
       </c>
@@ -4068,7 +4038,7 @@
         <v>29.598500000000001</v>
       </c>
       <c r="K25">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I25,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I25,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>500</v>
       </c>
       <c r="L25" s="17">
@@ -4080,18 +4050,15 @@
         <v>-1300</v>
       </c>
       <c r="O25">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I25,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I25,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P25" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>-1300</v>
       </c>
-      <c r="S25" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>2269</v>
       </c>
@@ -4115,7 +4082,7 @@
         <v>60.476100000000002</v>
       </c>
       <c r="K26">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I26,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I26,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>800</v>
       </c>
       <c r="L26" s="17">
@@ -4127,18 +4094,15 @@
         <v>-2400</v>
       </c>
       <c r="O26">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I26,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I26,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P26" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>-2400</v>
       </c>
-      <c r="S26" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>2714</v>
       </c>
@@ -4162,7 +4126,7 @@
         <v>355.88819999999998</v>
       </c>
       <c r="K27">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I27,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I27,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>300</v>
       </c>
       <c r="L27" s="17">
@@ -4174,18 +4138,15 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I27,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>0</v>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I27,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>-500</v>
       </c>
       <c r="P27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>300274</v>
       </c>
@@ -4209,7 +4170,7 @@
         <v>30.999099999999999</v>
       </c>
       <c r="K28">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I28,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I28,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>400</v>
       </c>
       <c r="L28" s="17">
@@ -4221,18 +4182,15 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I28,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>2900</v>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I28,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>-2900</v>
       </c>
       <c r="P28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-2900</v>
-      </c>
-      <c r="S28" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>300750</v>
       </c>
@@ -4256,7 +4214,7 @@
         <v>75.065899999999999</v>
       </c>
       <c r="K29">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I29,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I29,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>700</v>
       </c>
       <c r="L29" s="17">
@@ -4268,18 +4226,15 @@
         <v>-5900</v>
       </c>
       <c r="O29">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I29,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I29,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P29" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>-5900</v>
       </c>
-      <c r="S29" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>300759</v>
       </c>
@@ -4303,7 +4258,7 @@
         <v>89.819800000000001</v>
       </c>
       <c r="K30">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I30,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I30,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>300</v>
       </c>
       <c r="L30" s="17">
@@ -4315,18 +4270,15 @@
         <v>-16600</v>
       </c>
       <c r="O30">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I30,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>6200</v>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I30,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>-6200</v>
       </c>
       <c r="P30" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-22800</v>
-      </c>
-      <c r="S30" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+        <v>-10400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>600887</v>
       </c>
@@ -4350,7 +4302,7 @@
         <v>272.32889999999998</v>
       </c>
       <c r="K31">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I31,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I31,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>700</v>
       </c>
       <c r="L31" s="17">
@@ -4362,18 +4314,15 @@
         <v>-11900</v>
       </c>
       <c r="O31">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I31,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I31,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P31" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>-11900</v>
       </c>
-      <c r="S31" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>2001</v>
       </c>
@@ -4397,7 +4346,7 @@
         <v>174.50011099999998</v>
       </c>
       <c r="K32">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I32,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I32,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>200</v>
       </c>
       <c r="L32" s="17">
@@ -4409,18 +4358,15 @@
         <v>-2800</v>
       </c>
       <c r="O32">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I32,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>200</v>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I32,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>-200</v>
       </c>
       <c r="P32" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="S32" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>2460</v>
       </c>
@@ -4444,7 +4390,7 @@
         <v>61.039499999999997</v>
       </c>
       <c r="K33">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I33,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I33,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>200</v>
       </c>
       <c r="L33" s="17">
@@ -4456,18 +4402,15 @@
         <v>-2400</v>
       </c>
       <c r="O33">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I33,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>200</v>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I33,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>-200</v>
       </c>
       <c r="P33" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-2600</v>
-      </c>
-      <c r="S33" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+        <v>-2200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>300274</v>
       </c>
@@ -4491,7 +4434,7 @@
         <v>338.01510000000002</v>
       </c>
       <c r="K34">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I34,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I34,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>300</v>
       </c>
       <c r="L34" s="17">
@@ -4503,18 +4446,15 @@
         <v>-7700</v>
       </c>
       <c r="O34">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I34,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>150</v>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I34,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>-650</v>
       </c>
       <c r="P34" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-7850</v>
-      </c>
-      <c r="S34" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+        <v>-7050</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>2850</v>
       </c>
@@ -4538,7 +4478,7 @@
         <v>456.29230000000001</v>
       </c>
       <c r="K35">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I35,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I35,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>800</v>
       </c>
       <c r="L35" s="17">
@@ -4550,18 +4490,15 @@
         <v>-9000</v>
       </c>
       <c r="O35">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I35,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I35,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P35" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>-9000</v>
       </c>
-      <c r="S35" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>2821</v>
       </c>
@@ -4585,7 +4522,7 @@
         <v>30.154199999999999</v>
       </c>
       <c r="K36">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I36,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I36,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>600</v>
       </c>
       <c r="L36" s="17">
@@ -4597,18 +4534,15 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I36,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I36,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P36" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="S36" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>600809</v>
       </c>
@@ -4632,7 +4566,7 @@
         <v>156.44298800000001</v>
       </c>
       <c r="K37">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I37,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I37,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>650</v>
       </c>
       <c r="L37" s="17">
@@ -4644,18 +4578,15 @@
         <v>-6400</v>
       </c>
       <c r="O37">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I37,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I37,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P37" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>-6400</v>
       </c>
-      <c r="S37" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>300750</v>
       </c>
@@ -4679,7 +4610,7 @@
         <v>29.7974</v>
       </c>
       <c r="K38">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I38,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I38,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>500</v>
       </c>
       <c r="L38" s="17">
@@ -4691,18 +4622,15 @@
         <v>-2300</v>
       </c>
       <c r="O38">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I38,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I38,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P38" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>-2300</v>
       </c>
-      <c r="S38" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>300496</v>
       </c>
@@ -4726,7 +4654,7 @@
         <v>111.99379999999999</v>
       </c>
       <c r="K39">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I39,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I39,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>700</v>
       </c>
       <c r="L39" s="17">
@@ -4738,18 +4666,15 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I39,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>700</v>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I39,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>-700</v>
       </c>
       <c r="P39" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-700</v>
-      </c>
-      <c r="S39" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>300059</v>
       </c>
@@ -4773,7 +4698,7 @@
         <v>152.01310000000001</v>
       </c>
       <c r="K40">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I40,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I40,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="L40" s="17">
@@ -4785,18 +4710,15 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I40,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I40,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P40" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="S40" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>300014</v>
       </c>
@@ -4820,7 +4742,7 @@
         <v>167.951731</v>
       </c>
       <c r="K41">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I41,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I41,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="L41" s="17">
@@ -4832,18 +4754,15 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I41,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
-        <v>0</v>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I41,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>-300</v>
       </c>
       <c r="P41" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>2001</v>
       </c>
@@ -4867,7 +4786,7 @@
         <v>163.47380000000001</v>
       </c>
       <c r="K42">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I42,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I42,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>650</v>
       </c>
       <c r="L42" s="17">
@@ -4879,18 +4798,15 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I42,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I42,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P42" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="S42" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>600885</v>
       </c>
@@ -4914,7 +4830,7 @@
         <v>87.1477</v>
       </c>
       <c r="K43">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I43,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I43,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>200</v>
       </c>
       <c r="L43" s="17">
@@ -4926,18 +4842,15 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I43,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I43,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P43" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="S43" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>300759</v>
       </c>
@@ -4961,7 +4874,7 @@
         <v>312.75799999999998</v>
       </c>
       <c r="K44">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I44,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I44,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>500</v>
       </c>
       <c r="L44" s="17">
@@ -4973,18 +4886,15 @@
         <v>-70000</v>
       </c>
       <c r="O44">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I44,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I44,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P44" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>-70000</v>
       </c>
-      <c r="S44" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>300750</v>
       </c>
@@ -5008,7 +4918,7 @@
         <v>218.2961</v>
       </c>
       <c r="K45">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I45,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I45,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>500</v>
       </c>
       <c r="L45" s="17">
@@ -5020,18 +4930,15 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I45,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I45,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P45" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="S45" s="11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>300496</v>
       </c>
@@ -5055,7 +4962,7 @@
         <v>195.89949999999999</v>
       </c>
       <c r="K46">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I46,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I46,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>900</v>
       </c>
       <c r="L46" s="17">
@@ -5067,18 +4974,15 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I46,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I46,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P46" s="18">
         <f t="shared" ref="P46:P47" ca="1" si="8">N46-O46</f>
         <v>0</v>
       </c>
-      <c r="S46" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>300450</v>
       </c>
@@ -5102,7 +5006,7 @@
         <v>155.72561999999999</v>
       </c>
       <c r="K47">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I47,股票额度!$G$2:$G$10000,"买入",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I47,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>200</v>
       </c>
       <c r="L47" s="17">
@@ -5114,18 +5018,15 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I47,股票额度!$G$2:$G$10000,"卖出",股票额度!$I$2:$I$10000,"&gt;="&amp; TODAY())</f>
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I47,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
         <v>0</v>
       </c>
       <c r="P47" s="18">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="S47" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>300014</v>
       </c>
@@ -6989,20 +6890,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7774697-FE8A-4B07-B677-4EF890CC868A}">
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7016,22 +6917,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+        <v>204</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="G1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
@@ -7044,24 +6939,17 @@
       <c r="D2" s="4">
         <v>200</v>
       </c>
-      <c r="E2">
-        <v>109.01519999999999</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F55" si="0">D2-E2</f>
-        <v>90.984800000000007</v>
-      </c>
-      <c r="G2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="2">
         <v>44608</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>169</v>
       </c>
@@ -7074,24 +6962,17 @@
       <c r="D3" s="4">
         <v>300</v>
       </c>
-      <c r="E3">
-        <v>30.999099999999999</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>269.0009</v>
-      </c>
-      <c r="G3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I3" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>165</v>
       </c>
@@ -7104,24 +6985,17 @@
       <c r="D4" s="4">
         <v>300</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I4" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -7134,24 +7008,17 @@
       <c r="D5" s="4">
         <v>300</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I5" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -7164,24 +7031,17 @@
       <c r="D6">
         <v>500</v>
       </c>
-      <c r="E6">
-        <v>29.598500000000001</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>470.4015</v>
-      </c>
-      <c r="G6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I6" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>92</v>
       </c>
@@ -7194,24 +7054,17 @@
       <c r="D7" s="4">
         <v>150</v>
       </c>
-      <c r="E7" s="4">
-        <v>119.6687</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>30.331299999999999</v>
-      </c>
-      <c r="G7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="E7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>114</v>
       </c>
@@ -7224,24 +7077,17 @@
       <c r="D8" s="4">
         <v>100</v>
       </c>
-      <c r="E8" s="4">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="E8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -7254,24 +7100,17 @@
       <c r="D9" s="4">
         <v>200</v>
       </c>
-      <c r="E9">
-        <v>64.092699999999994</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>135.90730000000002</v>
-      </c>
-      <c r="G9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="E9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="2">
         <v>44608</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -7284,24 +7123,17 @@
       <c r="D10">
         <v>500</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="G10" t="s">
-        <v>198</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I10" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -7314,24 +7146,17 @@
       <c r="D11" s="4">
         <v>200</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="G11" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="E11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="2">
         <v>44608</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -7344,24 +7169,17 @@
       <c r="D12" s="4">
         <v>300</v>
       </c>
-      <c r="E12">
-        <v>118.62</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>181.38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I12" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -7374,24 +7192,17 @@
       <c r="D13" s="4">
         <v>200</v>
       </c>
-      <c r="E13">
-        <v>89.819800000000001</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>110.1802</v>
-      </c>
-      <c r="G13" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I13" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>191</v>
       </c>
@@ -7404,24 +7215,17 @@
       <c r="D14">
         <v>500</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="G14" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I14" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>96</v>
       </c>
@@ -7434,24 +7238,17 @@
       <c r="D15" s="4">
         <v>100</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G15" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="E15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -7464,24 +7261,17 @@
       <c r="D16" s="4">
         <v>300</v>
       </c>
-      <c r="E16">
-        <v>99.931100000000001</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>200.06889999999999</v>
-      </c>
-      <c r="G16" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I16" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>173</v>
       </c>
@@ -7494,24 +7284,17 @@
       <c r="D17">
         <v>500</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="G17" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I17" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>187</v>
       </c>
@@ -7524,24 +7307,17 @@
       <c r="D18">
         <v>500</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="G18" t="s">
-        <v>198</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I18" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -7554,24 +7330,17 @@
       <c r="D19" s="4">
         <v>300</v>
       </c>
-      <c r="E19">
-        <v>60.476100000000002</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>239.5239</v>
-      </c>
-      <c r="G19" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I19" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -7584,21 +7353,17 @@
       <c r="D20">
         <v>500</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="G20" t="s">
-        <v>198</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I20" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>179</v>
       </c>
@@ -7611,24 +7376,17 @@
       <c r="D21">
         <v>500</v>
       </c>
-      <c r="E21">
-        <v>69.493600000000001</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>430.50639999999999</v>
-      </c>
-      <c r="G21" t="s">
-        <v>198</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I21" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -7641,24 +7399,17 @@
       <c r="D22" s="4">
         <v>200</v>
       </c>
-      <c r="E22">
-        <v>140.6831</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>59.316900000000004</v>
-      </c>
-      <c r="G22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I22" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -7671,24 +7422,17 @@
       <c r="D23" s="4">
         <v>-3600</v>
       </c>
-      <c r="E23">
-        <v>-3600</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="E23" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I23" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G23" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>106</v>
       </c>
@@ -7701,24 +7445,17 @@
       <c r="D24" s="4">
         <v>200</v>
       </c>
-      <c r="E24" s="4">
-        <v>152.77100000000002</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>47.228999999999985</v>
-      </c>
-      <c r="G24" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I24" s="5">
+      <c r="E24" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>110</v>
       </c>
@@ -7731,24 +7468,17 @@
       <c r="D25" s="4">
         <v>200</v>
       </c>
-      <c r="E25" s="4">
-        <v>128.57769999999999</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>71.422300000000007</v>
-      </c>
-      <c r="G25" t="s">
-        <v>198</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I25" s="5">
+      <c r="E25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -7761,24 +7491,17 @@
       <c r="D26" s="4">
         <v>200</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="G26" t="s">
-        <v>198</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I26" s="2">
+      <c r="E26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="2">
         <v>44608</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>171</v>
       </c>
@@ -7791,24 +7514,17 @@
       <c r="D27" s="4">
         <v>300</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G27" t="s">
-        <v>198</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I27" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>171</v>
       </c>
@@ -7821,24 +7537,17 @@
       <c r="D28">
         <v>500</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="G28" t="s">
-        <v>198</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I28" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>98</v>
       </c>
@@ -7851,24 +7560,17 @@
       <c r="D29" s="4">
         <v>300</v>
       </c>
-      <c r="E29" s="4">
-        <v>350.10410000000002</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>-50.104100000000017</v>
-      </c>
-      <c r="G29" t="s">
-        <v>198</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I29" s="5">
+      <c r="E29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>102</v>
       </c>
@@ -7881,24 +7583,17 @@
       <c r="D30" s="4">
         <v>300</v>
       </c>
-      <c r="E30" s="4">
-        <v>382.27679999999998</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>-82.27679999999998</v>
-      </c>
-      <c r="G30" t="s">
-        <v>198</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I30" s="5">
+      <c r="E30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -7911,24 +7606,17 @@
       <c r="D31" s="4">
         <v>200</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="G31" t="s">
-        <v>198</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I31" s="2">
+      <c r="E31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="2">
         <v>44608</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>185</v>
       </c>
@@ -7941,24 +7629,17 @@
       <c r="D32">
         <v>500</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="G32" t="s">
-        <v>198</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I32" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>134</v>
       </c>
@@ -7971,24 +7652,17 @@
       <c r="D33" s="4">
         <v>200</v>
       </c>
-      <c r="E33">
-        <v>58.7044</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>141.29560000000001</v>
-      </c>
-      <c r="G33" t="s">
-        <v>198</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I33" s="2">
+      <c r="E33" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="2">
         <v>44608</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>120</v>
       </c>
@@ -8001,24 +7675,17 @@
       <c r="D34" s="4">
         <v>200</v>
       </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="G34" t="s">
-        <v>198</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I34" s="5">
+      <c r="E34" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -8031,24 +7698,17 @@
       <c r="D35">
         <v>500</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="G35" t="s">
-        <v>198</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I35" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>116</v>
       </c>
@@ -8061,24 +7721,17 @@
       <c r="D36" s="4">
         <v>100</v>
       </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G36" t="s">
-        <v>198</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I36" s="5">
+      <c r="E36" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -8091,24 +7744,17 @@
       <c r="D37">
         <v>500</v>
       </c>
-      <c r="E37">
-        <v>64.952477999999999</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>435.04752200000001</v>
-      </c>
-      <c r="G37" t="s">
-        <v>198</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I37" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -8121,24 +7767,17 @@
       <c r="D38">
         <v>500</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="G38" t="s">
-        <v>198</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I38" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -8151,24 +7790,17 @@
       <c r="D39" s="4">
         <v>200</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="G39" t="s">
-        <v>198</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I39" s="2">
+      <c r="E39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" s="2">
         <v>44608</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>189</v>
       </c>
@@ -8181,24 +7813,17 @@
       <c r="D40">
         <v>500</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="G40" t="s">
-        <v>198</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I40" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G40" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>94</v>
       </c>
@@ -8211,24 +7836,17 @@
       <c r="D41" s="4">
         <v>100</v>
       </c>
-      <c r="E41" s="4">
-        <v>23.257307999999998</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>76.742692000000005</v>
-      </c>
-      <c r="G41" t="s">
-        <v>198</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I41" s="5">
+      <c r="E41" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -8241,24 +7859,17 @@
       <c r="D42" s="4">
         <v>200</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="G42" t="s">
-        <v>198</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I42" s="2">
+      <c r="E42" t="s">
+        <v>198</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" s="2">
         <v>44608</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>108</v>
       </c>
@@ -8271,24 +7882,17 @@
       <c r="D43" s="4">
         <v>150</v>
       </c>
-      <c r="E43" s="4">
-        <v>115.15449999999998</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>34.845500000000015</v>
-      </c>
-      <c r="G43" t="s">
-        <v>198</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I43" s="5">
+      <c r="E43" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G43" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>177</v>
       </c>
@@ -8301,24 +7905,17 @@
       <c r="D44">
         <v>500</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="G44" t="s">
-        <v>198</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I44" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -8331,24 +7928,17 @@
       <c r="D45" s="4">
         <v>200</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="G45" t="s">
-        <v>198</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I45" s="2">
+      <c r="E45" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="2">
         <v>44608</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -8361,24 +7951,17 @@
       <c r="D46" s="4">
         <v>200</v>
       </c>
-      <c r="E46">
-        <v>120.1101</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>79.889899999999997</v>
-      </c>
-      <c r="G46" t="s">
-        <v>198</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I46" s="2">
+      <c r="E46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G46" s="2">
         <v>44608</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -8391,24 +7974,17 @@
       <c r="D47" s="4">
         <v>200</v>
       </c>
-      <c r="E47">
-        <v>59.5</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>140.5</v>
-      </c>
-      <c r="G47" t="s">
-        <v>198</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I47" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -8421,24 +7997,17 @@
       <c r="D48">
         <v>500</v>
       </c>
-      <c r="E48">
-        <v>75.065899999999999</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>424.9341</v>
-      </c>
-      <c r="G48" t="s">
-        <v>198</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I48" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G48" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>112</v>
       </c>
@@ -8451,24 +8020,17 @@
       <c r="D49" s="4">
         <v>200</v>
       </c>
-      <c r="E49" s="4">
-        <v>145.49860000000001</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>54.50139999999999</v>
-      </c>
-      <c r="G49" t="s">
-        <v>198</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I49" s="5">
+      <c r="E49" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G49" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>100</v>
       </c>
@@ -8481,24 +8043,17 @@
       <c r="D50" s="4">
         <v>100</v>
       </c>
-      <c r="E50" s="4">
-        <v>75.323460999999995</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>24.676539000000005</v>
-      </c>
-      <c r="G50" t="s">
-        <v>198</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I50" s="5">
+      <c r="E50" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G50" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>89</v>
       </c>
@@ -8511,24 +8066,17 @@
       <c r="D51" s="4">
         <v>-14600</v>
       </c>
-      <c r="E51">
-        <v>-14600</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="E51" t="s">
         <v>199</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="F51" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I51" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G51" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>89</v>
       </c>
@@ -8541,24 +8089,17 @@
       <c r="D52" s="4">
         <v>300</v>
       </c>
-      <c r="E52" s="4">
-        <v>179.25985</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>120.74015</v>
-      </c>
-      <c r="G52" t="s">
-        <v>198</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I52" s="5">
+      <c r="E52" t="s">
+        <v>198</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G52" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>104</v>
       </c>
@@ -8571,24 +8112,17 @@
       <c r="D53" s="4">
         <v>300</v>
       </c>
-      <c r="E53" s="4">
-        <v>208.66489999999999</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>91.335100000000011</v>
-      </c>
-      <c r="G53" t="s">
-        <v>198</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I53" s="5">
+      <c r="E53" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G53" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>118</v>
       </c>
@@ -8601,24 +8135,17 @@
       <c r="D54" s="4">
         <v>200</v>
       </c>
-      <c r="E54" s="4">
-        <v>99.772836999999996</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>100.227163</v>
-      </c>
-      <c r="G54" t="s">
-        <v>198</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I54" s="5">
+      <c r="E54" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" s="5">
         <v>44571</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -8631,24 +8158,17 @@
       <c r="D55" s="4">
         <v>300</v>
       </c>
-      <c r="E55">
-        <v>99.968000000000004</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>200.03199999999998</v>
-      </c>
-      <c r="G55" t="s">
-        <v>198</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I55" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>198</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G55" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>132</v>
       </c>
@@ -8661,24 +8181,17 @@
       <c r="D56" s="4">
         <v>200</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <f>D56-E56</f>
-        <v>200</v>
-      </c>
-      <c r="G56" t="s">
-        <v>198</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I56" s="2">
+      <c r="E56" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G56" s="2">
         <v>44608</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>218</v>
       </c>
@@ -8691,24 +8204,17 @@
       <c r="D57" s="10">
         <v>-19800</v>
       </c>
-      <c r="E57" s="10">
-        <v>-19800</v>
-      </c>
-      <c r="F57">
-        <f t="shared" ref="F57:F104" si="1">D57-E57</f>
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="E57" t="s">
         <v>199</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="F57" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I57" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G57" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>219</v>
       </c>
@@ -8721,24 +8227,17 @@
       <c r="D58" s="10">
         <v>-29400</v>
       </c>
-      <c r="E58" s="10">
-        <v>-29400</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="E58" t="s">
         <v>199</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="F58" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I58" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G58" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>220</v>
       </c>
@@ -8751,24 +8250,17 @@
       <c r="D59" s="10">
         <v>-1900</v>
       </c>
-      <c r="E59">
-        <v>-1900</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="E59" t="s">
         <v>199</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="F59" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I59" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G59" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>221</v>
       </c>
@@ -8781,24 +8273,17 @@
       <c r="D60" s="10">
         <v>-7500</v>
       </c>
-      <c r="E60">
-        <v>-7500</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="E60" t="s">
         <v>199</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="F60" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I60" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G60" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>222</v>
       </c>
@@ -8811,24 +8296,17 @@
       <c r="D61" s="10">
         <v>-8500</v>
       </c>
-      <c r="E61">
-        <v>-8500</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="E61" t="s">
         <v>199</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="F61" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I61" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G61" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>223</v>
       </c>
@@ -8841,24 +8319,17 @@
       <c r="D62" s="10">
         <v>-6200</v>
       </c>
-      <c r="E62">
-        <v>-6200</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="E62" t="s">
         <v>199</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="F62" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I62" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G62" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>224</v>
       </c>
@@ -8871,24 +8342,17 @@
       <c r="D63" s="10">
         <v>-600</v>
       </c>
-      <c r="E63">
-        <v>-600</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="E63" t="s">
         <v>199</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="F63" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I63" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G63" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>171</v>
       </c>
@@ -8901,21 +8365,17 @@
       <c r="D64">
         <v>150</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="G64" t="s">
-        <v>198</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I64" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G64" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -8928,21 +8388,17 @@
       <c r="D65">
         <v>200</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G65" t="s">
-        <v>198</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I65" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G65" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>175</v>
       </c>
@@ -8955,21 +8411,17 @@
       <c r="D66">
         <v>200</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G66" t="s">
-        <v>198</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I66" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>198</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G66" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>232</v>
       </c>
@@ -8982,21 +8434,17 @@
       <c r="D67">
         <v>150</v>
       </c>
-      <c r="F67">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="G67" t="s">
-        <v>198</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I67" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>198</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G67" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>233</v>
       </c>
@@ -9009,21 +8457,17 @@
       <c r="D68">
         <v>200</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G68" t="s">
-        <v>198</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I68" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>198</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G68" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -9036,21 +8480,17 @@
       <c r="D69">
         <v>300</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G69" t="s">
-        <v>198</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I69" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>198</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G69" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>234</v>
       </c>
@@ -9063,21 +8503,17 @@
       <c r="D70">
         <v>300</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G70" t="s">
-        <v>198</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I70" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>198</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G70" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>185</v>
       </c>
@@ -9090,21 +8526,17 @@
       <c r="D71">
         <v>150</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="G71" t="s">
-        <v>198</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I71" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>198</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G71" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>187</v>
       </c>
@@ -9117,21 +8549,17 @@
       <c r="D72">
         <v>100</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G72" t="s">
-        <v>198</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I72" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>198</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G72" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>189</v>
       </c>
@@ -9144,21 +8572,17 @@
       <c r="D73">
         <v>150</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="G73" t="s">
-        <v>198</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I73" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>198</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G73" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>179</v>
       </c>
@@ -9171,21 +8595,17 @@
       <c r="D74">
         <v>300</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G74" t="s">
-        <v>198</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I74" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>198</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G74" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>124</v>
       </c>
@@ -9198,21 +8618,17 @@
       <c r="D75">
         <v>150</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="G75" t="s">
-        <v>198</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I75" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>198</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G75" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>102</v>
       </c>
@@ -9225,21 +8641,17 @@
       <c r="D76">
         <v>750</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="1"/>
-        <v>750</v>
-      </c>
-      <c r="G76" t="s">
-        <v>198</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I76" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>198</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G76" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -9252,21 +8664,17 @@
       <c r="D77">
         <v>500</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="G77" t="s">
-        <v>198</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I77" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>198</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G77" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>112</v>
       </c>
@@ -9279,21 +8687,17 @@
       <c r="D78">
         <v>450</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="G78" t="s">
-        <v>198</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I78" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>198</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G78" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>155</v>
       </c>
@@ -9306,21 +8710,17 @@
       <c r="D79">
         <v>300</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G79" t="s">
-        <v>198</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I79" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>198</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G79" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>236</v>
       </c>
@@ -9333,21 +8733,17 @@
       <c r="D80">
         <v>300</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G80" t="s">
-        <v>198</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I80" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>198</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>237</v>
       </c>
@@ -9360,21 +8756,17 @@
       <c r="D81">
         <v>300</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G81" t="s">
-        <v>198</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I81" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G81" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>128</v>
       </c>
@@ -9387,21 +8779,17 @@
       <c r="D82">
         <v>300</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G82" t="s">
-        <v>198</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I82" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>198</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G82" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>108</v>
       </c>
@@ -9414,21 +8802,17 @@
       <c r="D83">
         <v>300</v>
       </c>
-      <c r="F83">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G83" t="s">
-        <v>198</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I83" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>198</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G83" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>122</v>
       </c>
@@ -9441,21 +8825,17 @@
       <c r="D84">
         <v>300</v>
       </c>
-      <c r="F84">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G84" t="s">
-        <v>198</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I84" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G84" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -9468,21 +8848,17 @@
       <c r="D85">
         <v>300</v>
       </c>
-      <c r="F85">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G85" t="s">
-        <v>198</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I85" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>198</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G85" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -9495,21 +8871,17 @@
       <c r="D86">
         <v>200</v>
       </c>
-      <c r="F86">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G86" t="s">
-        <v>198</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I86" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>198</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G86" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>110</v>
       </c>
@@ -9522,21 +8894,17 @@
       <c r="D87">
         <v>250</v>
       </c>
-      <c r="F87">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="G87" t="s">
-        <v>198</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I87" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>198</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G87" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -9549,21 +8917,17 @@
       <c r="D88">
         <v>500</v>
       </c>
-      <c r="F88">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="G88" t="s">
-        <v>198</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I88" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>198</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G88" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -9576,21 +8940,17 @@
       <c r="D89">
         <v>200</v>
       </c>
-      <c r="F89">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G89" t="s">
-        <v>198</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I89" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>198</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G89" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -9603,21 +8963,17 @@
       <c r="D90">
         <v>500</v>
       </c>
-      <c r="F90">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="G90" t="s">
-        <v>198</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I90" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>198</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G90" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>238</v>
       </c>
@@ -9630,21 +8986,17 @@
       <c r="D91">
         <v>200</v>
       </c>
-      <c r="F91">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G91" t="s">
-        <v>198</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I91" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>198</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G91" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>239</v>
       </c>
@@ -9657,21 +9009,17 @@
       <c r="D92">
         <v>200</v>
       </c>
-      <c r="F92">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G92" t="s">
-        <v>198</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I92" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>198</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G92" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>240</v>
       </c>
@@ -9684,21 +9032,17 @@
       <c r="D93">
         <v>200</v>
       </c>
-      <c r="F93">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G93" t="s">
-        <v>198</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I93" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>198</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G93" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>157</v>
       </c>
@@ -9711,21 +9055,17 @@
       <c r="D94">
         <v>100</v>
       </c>
-      <c r="F94">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G94" t="s">
-        <v>198</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I94" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>198</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G94" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>169</v>
       </c>
@@ -9738,21 +9078,17 @@
       <c r="D95">
         <v>100</v>
       </c>
-      <c r="F95">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G95" t="s">
-        <v>198</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I95" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>198</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G95" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>241</v>
       </c>
@@ -9765,21 +9101,17 @@
       <c r="D96">
         <v>200</v>
       </c>
-      <c r="F96">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G96" t="s">
-        <v>198</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I96" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>198</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G96" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>243</v>
       </c>
@@ -9792,21 +9124,17 @@
       <c r="D97">
         <v>150</v>
       </c>
-      <c r="F97">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="G97" t="s">
-        <v>198</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I97" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>198</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G97" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>245</v>
       </c>
@@ -9819,21 +9147,17 @@
       <c r="D98">
         <v>200</v>
       </c>
-      <c r="F98">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G98" t="s">
-        <v>198</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I98" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>198</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G98" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>247</v>
       </c>
@@ -9846,21 +9170,17 @@
       <c r="D99">
         <v>150</v>
       </c>
-      <c r="F99">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="G99" t="s">
-        <v>198</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I99" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>198</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G99" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>239</v>
       </c>
@@ -9871,23 +9191,19 @@
         <v>91</v>
       </c>
       <c r="D100">
-        <v>2400</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="1"/>
-        <v>2400</v>
-      </c>
-      <c r="G100" t="s">
+        <v>-2400</v>
+      </c>
+      <c r="E100" t="s">
         <v>199</v>
       </c>
-      <c r="H100" s="9" t="s">
+      <c r="F100" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I100" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G100" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>240</v>
       </c>
@@ -9898,23 +9214,19 @@
         <v>91</v>
       </c>
       <c r="D101">
-        <v>1000</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="G101" t="s">
+        <v>-1000</v>
+      </c>
+      <c r="E101" t="s">
         <v>199</v>
       </c>
-      <c r="H101" s="9" t="s">
+      <c r="F101" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I101" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G101" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>124</v>
       </c>
@@ -9925,23 +9237,19 @@
         <v>91</v>
       </c>
       <c r="D102">
-        <v>700</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="1"/>
-        <v>700</v>
-      </c>
-      <c r="G102" t="s">
+        <v>-700</v>
+      </c>
+      <c r="E102" t="s">
         <v>199</v>
       </c>
-      <c r="H102" s="9" t="s">
+      <c r="F102" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I102" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G102" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>157</v>
       </c>
@@ -9952,23 +9260,19 @@
         <v>91</v>
       </c>
       <c r="D103">
-        <v>6200</v>
-      </c>
-      <c r="F103">
-        <f t="shared" si="1"/>
-        <v>6200</v>
-      </c>
-      <c r="G103" t="s">
+        <v>-6200</v>
+      </c>
+      <c r="E103" t="s">
         <v>199</v>
       </c>
-      <c r="H103" s="9" t="s">
+      <c r="F103" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I103" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G103" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>169</v>
       </c>
@@ -9979,23 +9283,19 @@
         <v>91</v>
       </c>
       <c r="D104">
-        <v>2900</v>
-      </c>
-      <c r="F104">
-        <f t="shared" si="1"/>
-        <v>2900</v>
-      </c>
-      <c r="G104" t="s">
+        <v>-2900</v>
+      </c>
+      <c r="E104" t="s">
         <v>199</v>
       </c>
-      <c r="H104" s="9" t="s">
+      <c r="F104" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I104" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G104" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>292</v>
       </c>
@@ -10008,17 +9308,17 @@
       <c r="D105">
         <v>500</v>
       </c>
-      <c r="G105" t="s">
-        <v>198</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I105" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G105" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>293</v>
       </c>
@@ -10031,17 +9331,17 @@
       <c r="D106">
         <v>500</v>
       </c>
-      <c r="G106" t="s">
-        <v>198</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I106" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G106" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>294</v>
       </c>
@@ -10054,17 +9354,17 @@
       <c r="D107">
         <v>500</v>
       </c>
-      <c r="G107" t="s">
-        <v>198</v>
-      </c>
-      <c r="H107" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I107" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E107" t="s">
+        <v>198</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G107" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>295</v>
       </c>
@@ -10077,17 +9377,17 @@
       <c r="D108">
         <v>300</v>
       </c>
-      <c r="G108" t="s">
-        <v>198</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I108" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G108" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>296</v>
       </c>
@@ -10100,17 +9400,17 @@
       <c r="D109">
         <v>300</v>
       </c>
-      <c r="G109" t="s">
-        <v>198</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I109" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E109" t="s">
+        <v>198</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G109" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>297</v>
       </c>
@@ -10123,17 +9423,17 @@
       <c r="D110">
         <v>500</v>
       </c>
-      <c r="G110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I110" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G110" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>167</v>
       </c>
@@ -10146,17 +9446,17 @@
       <c r="D111">
         <v>500</v>
       </c>
-      <c r="G111" t="s">
-        <v>198</v>
-      </c>
-      <c r="H111" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I111" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G111" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>298</v>
       </c>
@@ -10169,17 +9469,17 @@
       <c r="D112">
         <v>500</v>
       </c>
-      <c r="G112" t="s">
-        <v>198</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I112" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
+        <v>198</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G112" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>299</v>
       </c>
@@ -10192,17 +9492,17 @@
       <c r="D113">
         <v>500</v>
       </c>
-      <c r="G113" t="s">
-        <v>198</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I113" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E113" t="s">
+        <v>198</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G113" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>300</v>
       </c>
@@ -10215,17 +9515,17 @@
       <c r="D114">
         <v>300</v>
       </c>
-      <c r="G114" t="s">
-        <v>198</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I114" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
+        <v>198</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G114" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>301</v>
       </c>
@@ -10238,17 +9538,17 @@
       <c r="D115">
         <v>300</v>
       </c>
-      <c r="G115" t="s">
-        <v>198</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I115" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E115" t="s">
+        <v>198</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G115" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>126</v>
       </c>
@@ -10261,17 +9561,17 @@
       <c r="D116">
         <v>300</v>
       </c>
-      <c r="G116" t="s">
-        <v>198</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I116" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E116" t="s">
+        <v>198</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G116" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>302</v>
       </c>
@@ -10284,17 +9584,17 @@
       <c r="D117">
         <v>300</v>
       </c>
-      <c r="G117" t="s">
-        <v>198</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I117" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E117" t="s">
+        <v>198</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G117" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>303</v>
       </c>
@@ -10307,17 +9607,17 @@
       <c r="D118">
         <v>500</v>
       </c>
-      <c r="G118" t="s">
-        <v>198</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I118" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E118" t="s">
+        <v>198</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G118" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>240</v>
       </c>
@@ -10328,19 +9628,19 @@
         <v>91</v>
       </c>
       <c r="D119">
-        <v>200</v>
-      </c>
-      <c r="G119" t="s">
+        <v>-200</v>
+      </c>
+      <c r="E119" t="s">
         <v>199</v>
       </c>
-      <c r="H119" s="9" t="s">
+      <c r="F119" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I119" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G119" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -10351,19 +9651,19 @@
         <v>91</v>
       </c>
       <c r="D120">
-        <v>200</v>
-      </c>
-      <c r="G120" t="s">
+        <v>-200</v>
+      </c>
+      <c r="E120" t="s">
         <v>199</v>
       </c>
-      <c r="H120" s="9" t="s">
+      <c r="F120" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I120" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G120" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>106</v>
       </c>
@@ -10374,19 +9674,19 @@
         <v>91</v>
       </c>
       <c r="D121">
-        <v>300</v>
-      </c>
-      <c r="G121" t="s">
+        <v>-300</v>
+      </c>
+      <c r="E121" t="s">
         <v>199</v>
       </c>
-      <c r="H121" s="9" t="s">
+      <c r="F121" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I121" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G121" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -10397,19 +9697,19 @@
         <v>91</v>
       </c>
       <c r="D122">
-        <v>500</v>
-      </c>
-      <c r="G122" t="s">
+        <v>-500</v>
+      </c>
+      <c r="E122" t="s">
         <v>199</v>
       </c>
-      <c r="H122" s="9" t="s">
+      <c r="F122" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I122" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G122" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>299</v>
       </c>
@@ -10420,19 +9720,19 @@
         <v>91</v>
       </c>
       <c r="D123">
-        <v>500</v>
-      </c>
-      <c r="G123" t="s">
+        <v>-500</v>
+      </c>
+      <c r="E123" t="s">
         <v>199</v>
       </c>
-      <c r="H123" s="9" t="s">
+      <c r="F123" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I123" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G123" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>108</v>
       </c>
@@ -10443,19 +9743,19 @@
         <v>91</v>
       </c>
       <c r="D124">
-        <v>500</v>
-      </c>
-      <c r="G124" t="s">
+        <v>-500</v>
+      </c>
+      <c r="E124" t="s">
         <v>199</v>
       </c>
-      <c r="H124" s="9" t="s">
+      <c r="F124" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I124" s="2">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G124" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>236</v>
       </c>
@@ -10466,20 +9766,319 @@
         <v>91</v>
       </c>
       <c r="D125">
-        <v>150</v>
-      </c>
-      <c r="G125" t="s">
+        <v>-150</v>
+      </c>
+      <c r="E125" t="s">
         <v>199</v>
       </c>
-      <c r="H125" s="9" t="s">
+      <c r="F125" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I125" s="2">
+      <c r="G125" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>328</v>
+      </c>
+      <c r="B126" t="s">
+        <v>320</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D126">
+        <v>500</v>
+      </c>
+      <c r="E126" t="s">
+        <v>198</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G126" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>329</v>
+      </c>
+      <c r="B127" t="s">
+        <v>321</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D127">
+        <v>500</v>
+      </c>
+      <c r="E127" t="s">
+        <v>198</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G127" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>330</v>
+      </c>
+      <c r="B128" t="s">
+        <v>322</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D128">
+        <v>500</v>
+      </c>
+      <c r="E128" t="s">
+        <v>198</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G128" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>331</v>
+      </c>
+      <c r="B129" t="s">
+        <v>323</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D129">
+        <v>300</v>
+      </c>
+      <c r="E129" t="s">
+        <v>198</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G129" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>332</v>
+      </c>
+      <c r="B130" t="s">
+        <v>324</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D130">
+        <v>300</v>
+      </c>
+      <c r="E130" t="s">
+        <v>198</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G130" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>333</v>
+      </c>
+      <c r="B131" t="s">
+        <v>325</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D131">
+        <v>300</v>
+      </c>
+      <c r="E131" t="s">
+        <v>198</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G131" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>334</v>
+      </c>
+      <c r="B132" t="s">
+        <v>326</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D132">
+        <v>300</v>
+      </c>
+      <c r="E132" t="s">
+        <v>198</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G132" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>335</v>
+      </c>
+      <c r="B133" t="s">
+        <v>327</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D133">
+        <v>300</v>
+      </c>
+      <c r="E133" t="s">
+        <v>198</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G133" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>236</v>
+      </c>
+      <c r="B134" t="s">
+        <v>197</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D134">
+        <v>-500</v>
+      </c>
+      <c r="E134" t="s">
+        <v>199</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G134" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>155</v>
+      </c>
+      <c r="B135" t="s">
+        <v>156</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D135">
+        <v>-500</v>
+      </c>
+      <c r="E135" t="s">
+        <v>199</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G135" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>303</v>
+      </c>
+      <c r="B136" t="s">
+        <v>291</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D136">
+        <v>-500</v>
+      </c>
+      <c r="E136" t="s">
+        <v>199</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G136" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>237</v>
+      </c>
+      <c r="B137" t="s">
+        <v>194</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D137">
+        <v>-500</v>
+      </c>
+      <c r="E137" t="s">
+        <v>199</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G137" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>297</v>
+      </c>
+      <c r="B138" t="s">
+        <v>255</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D138">
+        <v>-300</v>
+      </c>
+      <c r="E138" t="s">
+        <v>199</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G138" s="2">
         <v>44561</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I63" xr:uid="{C7774697-FE8A-4B07-B677-4EF890CC868A}"/>
+  <autoFilter ref="A1:G63" xr:uid="{C7774697-FE8A-4B07-B677-4EF890CC868A}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/桌面/抗通胀/流程额度.xlsx
+++ b/桌面/抗通胀/流程额度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\抗通胀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D502C9E6-49C6-4BDF-ACDD-074700E05F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD5D9E5-7B84-43D7-A165-A43290D92387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="336">
   <si>
     <t>代码</t>
   </si>
@@ -1292,7 +1292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1368,13 +1368,26 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2950,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P155"/>
+  <dimension ref="A1:P168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R10" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3111,7 +3124,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>460.72750000000002</v>
+        <v>511.15300000000002</v>
       </c>
       <c r="K4">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I4,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
@@ -3119,7 +3132,7 @@
       </c>
       <c r="L4" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>339.27249999999998</v>
+        <v>288.84699999999998</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
@@ -3211,7 +3224,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>-9300</v>
+        <v>-30300</v>
       </c>
       <c r="O6">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I6,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
@@ -3219,7 +3232,7 @@
       </c>
       <c r="P6" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-8800</v>
+        <v>-29800</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -3507,7 +3520,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>724.09400000000005</v>
+        <v>774.3836</v>
       </c>
       <c r="K13">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I13,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
@@ -3515,7 +3528,7 @@
       </c>
       <c r="L13" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>75.905999999999949</v>
+        <v>25.616399999999999</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
@@ -3903,7 +3916,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>311.34429999999998</v>
+        <v>392.54090000000002</v>
       </c>
       <c r="K22">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I22,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
@@ -3911,7 +3924,7 @@
       </c>
       <c r="L22" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>188.65570000000002</v>
+        <v>107.45909999999998</v>
       </c>
       <c r="N22">
         <f t="shared" si="3"/>
@@ -4135,7 +4148,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-16000</v>
       </c>
       <c r="O27">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I27,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
@@ -4143,7 +4156,7 @@
       </c>
       <c r="P27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>500</v>
+        <v>-15500</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -4167,7 +4180,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>30.999099999999999</v>
+        <v>95.940200000000004</v>
       </c>
       <c r="K28">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I28,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
@@ -4175,7 +4188,7 @@
       </c>
       <c r="L28" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>369.0009</v>
+        <v>304.0598</v>
       </c>
       <c r="N28">
         <f t="shared" si="3"/>
@@ -4751,7 +4764,7 @@
       </c>
       <c r="N41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-9000</v>
       </c>
       <c r="O41">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I41,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
@@ -4759,7 +4772,7 @@
       </c>
       <c r="P41" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>300</v>
+        <v>-8700</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -4795,7 +4808,7 @@
       </c>
       <c r="N42">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="O42">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I42,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
@@ -4803,7 +4816,7 @@
       </c>
       <c r="P42" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-50000</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -4827,7 +4840,7 @@
       </c>
       <c r="J43">
         <f t="shared" si="1"/>
-        <v>87.1477</v>
+        <v>139.68180000000001</v>
       </c>
       <c r="K43">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I43,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
@@ -4835,7 +4848,7 @@
       </c>
       <c r="L43" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>112.8523</v>
+        <v>60.31819999999999</v>
       </c>
       <c r="N43">
         <f t="shared" si="3"/>
@@ -4971,7 +4984,7 @@
       </c>
       <c r="N46">
         <f t="shared" ref="N46:N47" si="7">SUMIFS($C$2:$C$100000,$E$2:$E$100000,"卖出",$B$2:$B$100000,"="&amp;I46)</f>
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="O46">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I46,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
@@ -4979,7 +4992,7 @@
       </c>
       <c r="P46" s="18">
         <f t="shared" ref="P46:P47" ca="1" si="8">N46-O46</f>
-        <v>0</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -5003,7 +5016,7 @@
       </c>
       <c r="J47">
         <f t="shared" si="5"/>
-        <v>155.72561999999999</v>
+        <v>208.99711000000002</v>
       </c>
       <c r="K47">
         <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I47,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
@@ -5011,7 +5024,7 @@
       </c>
       <c r="L47" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>44.274380000000008</v>
+        <v>-8.9971100000000206</v>
       </c>
       <c r="N47">
         <f t="shared" si="7"/>
@@ -5042,8 +5055,35 @@
       <c r="E48" s="7" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>321</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ref="J48:J49" si="9">SUMIFS($D$2:$D$100000,$E$2:$E$100000,"买入",$B$2:$B$100000,"="&amp;I48)/10000</f>
+        <v>115.7657</v>
+      </c>
+      <c r="K48">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I48,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>500</v>
+      </c>
+      <c r="L48" s="17">
+        <f t="shared" ref="L48:L49" ca="1" si="10">K48-J48</f>
+        <v>384.23430000000002</v>
+      </c>
+      <c r="N48">
+        <f t="shared" ref="N48:N49" si="11">SUMIFS($C$2:$C$100000,$E$2:$E$100000,"卖出",$B$2:$B$100000,"="&amp;I48)</f>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I48,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="18">
+        <f t="shared" ref="P48:P49" ca="1" si="12">N48-O48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>2487</v>
       </c>
@@ -5059,8 +5099,35 @@
       <c r="E49" s="7" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>290</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="9"/>
+        <v>81.290959999999998</v>
+      </c>
+      <c r="K49">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I49,股票额度!$E$2:$E$10000,"买入",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>300</v>
+      </c>
+      <c r="L49" s="17">
+        <f t="shared" ca="1" si="10"/>
+        <v>218.70904000000002</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f ca="1">SUMIFS(股票额度!$D$2:$D$10000,股票额度!$B$2:$B$10000,"="&amp;股票交易!I49,股票额度!$E$2:$E$10000,"卖出",股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="18">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>2460</v>
       </c>
@@ -5077,7 +5144,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>600809</v>
       </c>
@@ -5094,7 +5161,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>100</v>
       </c>
@@ -5111,7 +5178,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>300782</v>
       </c>
@@ -5128,7 +5195,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>300776</v>
       </c>
@@ -5145,7 +5212,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>300763</v>
       </c>
@@ -5162,7 +5229,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>300759</v>
       </c>
@@ -5179,7 +5246,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>300450</v>
       </c>
@@ -5196,7 +5263,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>300363</v>
       </c>
@@ -5213,7 +5280,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>300073</v>
       </c>
@@ -5230,7 +5297,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>300059</v>
       </c>
@@ -5247,7 +5314,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>300037</v>
       </c>
@@ -5264,7 +5331,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>2821</v>
       </c>
@@ -5281,7 +5348,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>2487</v>
       </c>
@@ -5298,7 +5365,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>2241</v>
       </c>
@@ -6862,19 +6929,245 @@
         <v>198</v>
       </c>
     </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="7">
+        <v>600563</v>
+      </c>
+      <c r="B156" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C156" s="15">
+        <v>-2000</v>
+      </c>
+      <c r="D156" s="24">
+        <v>-493634</v>
+      </c>
+      <c r="E156" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="7">
+        <v>601689</v>
+      </c>
+      <c r="B157" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C157" s="15">
+        <v>-21000</v>
+      </c>
+      <c r="D157" s="24">
+        <v>-1344292</v>
+      </c>
+      <c r="E157" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="7">
+        <v>603659</v>
+      </c>
+      <c r="B158" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C158" s="15">
+        <v>-9000</v>
+      </c>
+      <c r="D158" s="24">
+        <v>-1609607</v>
+      </c>
+      <c r="E158" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="23">
+        <v>2245</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C159" s="24">
+        <v>-50000</v>
+      </c>
+      <c r="D159" s="24">
+        <v>-1511390</v>
+      </c>
+      <c r="E159" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="23">
+        <v>2812</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C160" s="24">
+        <v>2000</v>
+      </c>
+      <c r="D160" s="24">
+        <v>504255</v>
+      </c>
+      <c r="E160" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="7">
+        <v>300014</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C161" s="15">
+        <v>3500</v>
+      </c>
+      <c r="D161" s="24">
+        <v>502896</v>
+      </c>
+      <c r="E161" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="7">
+        <v>300035</v>
+      </c>
+      <c r="B162" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C162" s="15">
+        <v>30000</v>
+      </c>
+      <c r="D162" s="24">
+        <v>1157657</v>
+      </c>
+      <c r="E162" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="7">
+        <v>300073</v>
+      </c>
+      <c r="B163" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C163" s="15">
+        <v>6000</v>
+      </c>
+      <c r="D163" s="24">
+        <v>649411</v>
+      </c>
+      <c r="E163" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="23">
+        <v>300363</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C164" s="24">
+        <v>-16000</v>
+      </c>
+      <c r="D164" s="24">
+        <v>-1548033</v>
+      </c>
+      <c r="E164" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="23">
+        <v>300450</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C165" s="24">
+        <v>10000</v>
+      </c>
+      <c r="D165" s="24">
+        <v>811966</v>
+      </c>
+      <c r="E165" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="7">
+        <v>300811</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C166" s="15">
+        <v>5000</v>
+      </c>
+      <c r="D166" s="24">
+        <v>525341</v>
+      </c>
+      <c r="E166" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C167" s="15">
+        <v>30000</v>
+      </c>
+      <c r="D167" s="24">
+        <v>532714.9</v>
+      </c>
+      <c r="E167" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C168" s="15">
+        <v>250000</v>
+      </c>
+      <c r="D168" s="24">
+        <v>812909.6</v>
+      </c>
+      <c r="E168" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L1:L45 P2:P45">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40:L43 P40:P43">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:L47 P46:P47">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L46:L47 P46:P47">
+  <conditionalFormatting sqref="L48:L49 P48:P49">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/桌面/抗通胀/流程额度.xlsx
+++ b/桌面/抗通胀/流程额度.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\抗通胀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD5D9E5-7B84-43D7-A165-A43290D92387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A64DF77-079C-4AB5-852A-B77825FC1C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基金额度" sheetId="1" r:id="rId1"/>
-    <sheet name="股票交易" sheetId="2" r:id="rId2"/>
-    <sheet name="股票额度" sheetId="3" r:id="rId3"/>
+    <sheet name="光证股票额度" sheetId="5" r:id="rId2"/>
+    <sheet name="光证股票交易" sheetId="6" r:id="rId3"/>
+    <sheet name="股票交易" sheetId="2" r:id="rId4"/>
+    <sheet name="股票额度" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">股票额度!$A$1:$G$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">股票额度!$A$1:$G$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基金额度!$A$1:$H$97</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="376">
   <si>
     <t>代码</t>
   </si>
@@ -1103,18 +1105,150 @@
   <si>
     <t>600893.SH</t>
   </si>
+  <si>
+    <t>牧原股份</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中材科技</t>
+  </si>
+  <si>
+    <t>中材科技</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝丰能源</t>
+  </si>
+  <si>
+    <t>宝丰能源</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰证券</t>
+  </si>
+  <si>
+    <t>华泰证券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方财富</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>600989</t>
+  </si>
+  <si>
+    <t>601688</t>
+  </si>
+  <si>
+    <t>002714</t>
+  </si>
+  <si>
+    <t>512880</t>
+  </si>
+  <si>
+    <t>证券ETF</t>
+  </si>
+  <si>
+    <t>002080</t>
+  </si>
+  <si>
+    <t>002714.SZ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>002080.SZ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>600989.SH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>601688.SH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>300059.SZ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>基金名称</t>
+  </si>
+  <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券名称</t>
+  </si>
+  <si>
+    <t>委托方向</t>
+  </si>
+  <si>
+    <t>指令价格(主币种)</t>
+  </si>
+  <si>
+    <t>指令数量</t>
+  </si>
+  <si>
+    <t>指令金额</t>
+  </si>
+  <si>
+    <t>当日成交均价(主币种)</t>
+  </si>
+  <si>
+    <t>当日成交数量</t>
+  </si>
+  <si>
+    <t>当日成交金额</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
+  </si>
+  <si>
+    <t>阳光红精选10号小集合</t>
+  </si>
+  <si>
+    <t>市价</t>
+  </si>
+  <si>
+    <t>16.9600</t>
+  </si>
+  <si>
+    <t>34.4200</t>
+  </si>
+  <si>
+    <t>16.3900</t>
+  </si>
+  <si>
+    <t>53.2900</t>
+  </si>
+  <si>
+    <t>1.1320</t>
+  </si>
+  <si>
+    <t>35.8400</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="###,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1211,16 +1345,43 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1280,8 +1441,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,8 +1467,9 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1371,13 +1548,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{2E8BF05F-630E-4CEE-B7D4-BC331650BDD9}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1692,7 +1895,7 @@
   <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2863,7 +3066,7 @@
         <v>45</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:F49" si="1">D47-E47</f>
+        <f>D47-E47</f>
         <v>255</v>
       </c>
       <c r="G47" s="2">
@@ -2884,7 +3087,7 @@
         <v>300</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f>D48-E48</f>
         <v>300</v>
       </c>
       <c r="G48" s="2">
@@ -2905,15 +3108,12 @@
         <v>300</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f>D49-E49</f>
         <v>300</v>
       </c>
       <c r="G49" s="2">
         <v>44561</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H52" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H61" s="4"/>
@@ -2962,11 +3162,580 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE30B5-957F-4C7A-8CCD-980F144BC174}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="4">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="4">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" s="4">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="4">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACC6B56-8C04-4683-8CDB-E6A62A3072FB}">
+  <dimension ref="A1:U7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30">
+        <v>200000</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="J2" s="30">
+        <v>11700</v>
+      </c>
+      <c r="K2" s="30">
+        <v>198432</v>
+      </c>
+      <c r="N2" t="s">
+        <v>339</v>
+      </c>
+      <c r="O2">
+        <f>SUMIFS($K$2:$K$100000,$E$2:$E$100000,"买入",$D$2:$D$100000,"="&amp;N2)/10000</f>
+        <v>19.8432</v>
+      </c>
+      <c r="P2">
+        <f ca="1">SUMIFS(光证股票额度!$D$2:$D$10000,光证股票额度!$B$2:$B$10000,"="&amp;N2,光证股票额度!$E$2:$E$10000,"买入",光证股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>50</v>
+      </c>
+      <c r="Q2" s="17">
+        <f ca="1">P2-O2</f>
+        <v>30.1568</v>
+      </c>
+      <c r="S2">
+        <f>SUMIFS($J$2:$J$100000,$E$2:$E$100000,"卖出",$D$2:$D$100000,"="&amp;N2)/10000</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f ca="1">SUMIFS(光证股票额度!$D$2:$D$10000,光证股票额度!$B$2:$B$10000,"="&amp;N2,光证股票额度!$E$2:$E$10000,"卖出",光证股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="17">
+        <f ca="1">S2-T2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30">
+        <v>200000</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="J3" s="30">
+        <v>5800</v>
+      </c>
+      <c r="K3" s="30">
+        <v>199636</v>
+      </c>
+      <c r="N3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O6" si="0">SUMIFS($K$2:$K$100000,$E$2:$E$100000,"买入",$D$2:$D$100000,"="&amp;N3)/10000</f>
+        <v>19.9636</v>
+      </c>
+      <c r="P3">
+        <f ca="1">SUMIFS(光证股票额度!$D$2:$D$10000,光证股票额度!$B$2:$B$10000,"="&amp;N3,光证股票额度!$E$2:$E$10000,"买入",光证股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>50</v>
+      </c>
+      <c r="Q3" s="17">
+        <f t="shared" ref="Q3:Q6" ca="1" si="1">P3-O3</f>
+        <v>30.0364</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S6" si="2">SUMIFS($J$2:$J$100000,$E$2:$E$100000,"卖出",$D$2:$D$100000,"="&amp;N3)/10000</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f ca="1">SUMIFS(光证股票额度!$D$2:$D$10000,光证股票额度!$B$2:$B$10000,"="&amp;N3,光证股票额度!$E$2:$E$10000,"卖出",光证股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="17">
+        <f t="shared" ref="U3:U6" ca="1" si="3">S3-T3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30">
+        <v>200000</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="J4" s="30">
+        <v>12100</v>
+      </c>
+      <c r="K4" s="30">
+        <v>198319</v>
+      </c>
+      <c r="N4" t="s">
+        <v>341</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>19.831900000000001</v>
+      </c>
+      <c r="P4">
+        <f ca="1">SUMIFS(光证股票额度!$D$2:$D$10000,光证股票额度!$B$2:$B$10000,"="&amp;N4,光证股票额度!$E$2:$E$10000,"买入",光证股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>50</v>
+      </c>
+      <c r="Q4" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>30.168099999999999</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f ca="1">SUMIFS(光证股票额度!$D$2:$D$10000,光证股票额度!$B$2:$B$10000,"="&amp;N4,光证股票额度!$E$2:$E$10000,"卖出",光证股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30">
+        <v>400000</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="J5" s="30">
+        <v>7500</v>
+      </c>
+      <c r="K5" s="30">
+        <v>399675</v>
+      </c>
+      <c r="N5" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>39.967500000000001</v>
+      </c>
+      <c r="P5">
+        <f ca="1">SUMIFS(光证股票额度!$D$2:$D$10000,光证股票额度!$B$2:$B$10000,"="&amp;N5,光证股票额度!$E$2:$E$10000,"买入",光证股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>50</v>
+      </c>
+      <c r="Q5" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.032499999999999</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f ca="1">SUMIFS(光证股票额度!$D$2:$D$10000,光证股票额度!$B$2:$B$10000,"="&amp;N5,光证股票额度!$E$2:$E$10000,"卖出",光证股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30">
+        <v>408421.6</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6" s="30">
+        <v>401200</v>
+      </c>
+      <c r="K6" s="30">
+        <v>454158.4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>337</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>19.712</v>
+      </c>
+      <c r="P6">
+        <f ca="1">SUMIFS(光证股票额度!$D$2:$D$10000,光证股票额度!$B$2:$B$10000,"="&amp;N6,光证股票额度!$E$2:$E$10000,"买入",光证股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>50</v>
+      </c>
+      <c r="Q6" s="17">
+        <f t="shared" ca="1" si="1"/>
+        <v>30.288</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f ca="1">SUMIFS(光证股票额度!$D$2:$D$10000,光证股票额度!$B$2:$B$10000,"="&amp;N6,光证股票额度!$E$2:$E$10000,"卖出",光证股票额度!$G$2:$G$10000,"&gt;="&amp; TODAY())</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30">
+        <v>200000</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="J7" s="30">
+        <v>5500</v>
+      </c>
+      <c r="K7" s="30">
+        <v>197120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="Q1:Q6 U2:U6">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R10" sqref="R1:R1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7181,12 +7950,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7774697-FE8A-4B07-B677-4EF890CC868A}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/桌面/抗通胀/流程额度.xlsx
+++ b/桌面/抗通胀/流程额度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\抗通胀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A64DF77-079C-4AB5-852A-B77825FC1C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C896D-A3EB-47E4-B377-79FE032DBC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基金额度" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">股票额度!$A$1:$G$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基金额度!$A$1:$H$97</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -843,9 +843,6 @@
     <t>009100.OF</t>
   </si>
   <si>
-    <t>安心稳健增利</t>
-  </si>
-  <si>
     <t>九洲药业</t>
   </si>
   <si>
@@ -1235,6 +1232,10 @@
   </si>
   <si>
     <t>35.8400</t>
+  </si>
+  <si>
+    <t>安信稳健增利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1246,7 +1247,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="###,##0.00"/>
+    <numFmt numFmtId="179" formatCode="###,##0.00"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1560,7 +1561,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1894,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2393,298 +2394,300 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
         <v>1000</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="1">
         <v>1000</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>44534</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <v>1000</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="1">
         <v>500</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>44534</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="1">
         <v>1000</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="1">
         <v>1000</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>44534</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="1">
         <v>1000</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="1">
         <v>500</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>44534</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="1">
         <v>1000</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="1">
         <v>1000</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <v>44534</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="1">
         <v>1000</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>44534</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>500</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>245.6</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <f t="shared" si="0"/>
         <v>254.4</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3">
         <v>44534</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>500</v>
       </c>
-      <c r="F27">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3">
         <v>44534</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>500</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>349.95</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <f t="shared" si="0"/>
         <v>150.05000000000001</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3">
         <v>44534</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>500</v>
       </c>
-      <c r="F29">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>44534</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="1"/>
       <c r="U29" s="6"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>500</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>495</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="3">
         <v>44534</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>500</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>200</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="3">
         <v>44534</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2711,7 +2714,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>75</v>
       </c>
@@ -2736,7 +2739,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>77</v>
       </c>
@@ -2761,7 +2764,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>79</v>
       </c>
@@ -2786,7 +2789,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>81</v>
       </c>
@@ -2811,7 +2814,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>83</v>
       </c>
@@ -2835,7 +2838,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>86</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -2883,7 +2886,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -2906,8 +2909,11 @@
       <c r="G40" s="2">
         <v>44561</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -2955,7 +2961,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>229</v>
       </c>
@@ -2979,7 +2985,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>250</v>
       </c>
@@ -3002,12 +3008,12 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>252</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>253</v>
+        <v>375</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>59</v>
@@ -3025,12 +3031,12 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>230</v>
@@ -3049,12 +3055,12 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>230</v>
@@ -3073,12 +3079,12 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>230</v>
@@ -3096,10 +3102,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>230</v>
@@ -3199,13 +3205,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D2" s="4">
         <v>50</v>
@@ -3222,13 +3228,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D3" s="4">
         <v>50</v>
@@ -3245,13 +3251,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
@@ -3268,13 +3274,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D5" s="4">
         <v>50</v>
@@ -3291,13 +3297,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="D6" s="4">
         <v>50</v>
@@ -3322,7 +3328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACC6B56-8C04-4683-8CDB-E6A62A3072FB}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
@@ -3334,37 +3340,37 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>365</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>366</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>205</v>
@@ -3388,29 +3394,29 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="C2" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>368</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>369</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30">
         <v>200000</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J2" s="30">
         <v>11700</v>
@@ -3419,7 +3425,7 @@
         <v>198432</v>
       </c>
       <c r="N2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O2">
         <f>SUMIFS($K$2:$K$100000,$E$2:$E$100000,"买入",$D$2:$D$100000,"="&amp;N2)/10000</f>
@@ -3448,13 +3454,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>368</v>
-      </c>
       <c r="C3" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>93</v>
@@ -3463,14 +3469,14 @@
         <v>198</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G3" s="30"/>
       <c r="H3" s="30">
         <v>200000</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J3" s="30">
         <v>5800</v>
@@ -3508,29 +3514,29 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="C4" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>368</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>369</v>
       </c>
       <c r="G4" s="30"/>
       <c r="H4" s="30">
         <v>200000</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J4" s="30">
         <v>12100</v>
@@ -3539,7 +3545,7 @@
         <v>198319</v>
       </c>
       <c r="N4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
@@ -3568,13 +3574,13 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>368</v>
-      </c>
       <c r="C5" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>99</v>
@@ -3583,14 +3589,14 @@
         <v>198</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="30">
         <v>400000</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J5" s="30">
         <v>7500</v>
@@ -3628,29 +3634,29 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>368</v>
-      </c>
       <c r="C6" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>348</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>349</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>199</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="30">
         <v>408421.6</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J6" s="30">
         <v>401200</v>
@@ -3659,7 +3665,7 @@
         <v>454158.4</v>
       </c>
       <c r="N6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
@@ -3688,29 +3694,29 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="C7" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>368</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>369</v>
       </c>
       <c r="G7" s="30"/>
       <c r="H7" s="30">
         <v>200000</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J7" s="30">
         <v>5500</v>
@@ -5473,7 +5479,7 @@
         <v>198</v>
       </c>
       <c r="I40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J40">
         <f t="shared" si="1"/>
@@ -5517,7 +5523,7 @@
         <v>198</v>
       </c>
       <c r="I41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J41">
         <f t="shared" si="1"/>
@@ -5649,7 +5655,7 @@
         <v>198</v>
       </c>
       <c r="I44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
@@ -5693,7 +5699,7 @@
         <v>198</v>
       </c>
       <c r="I45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
@@ -5825,7 +5831,7 @@
         <v>198</v>
       </c>
       <c r="I48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J48">
         <f t="shared" ref="J48:J49" si="9">SUMIFS($D$2:$D$100000,$E$2:$E$100000,"买入",$B$2:$B$100000,"="&amp;I48)/10000</f>
@@ -5869,7 +5875,7 @@
         <v>198</v>
       </c>
       <c r="I49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J49">
         <f t="shared" si="9"/>
@@ -7003,7 +7009,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>160</v>
@@ -7020,7 +7026,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>109</v>
@@ -7037,7 +7043,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>125</v>
@@ -7054,10 +7060,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C118" s="15">
         <v>25000</v>
@@ -7071,10 +7077,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C119" s="15">
         <v>4000</v>
@@ -7088,7 +7094,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>196</v>
@@ -7105,7 +7111,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>195</v>
@@ -7122,7 +7128,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>180</v>
@@ -7139,7 +7145,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>158</v>
@@ -7156,7 +7162,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>178</v>
@@ -7173,7 +7179,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>115</v>
@@ -7190,7 +7196,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>156</v>
@@ -7207,7 +7213,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>111</v>
@@ -7224,7 +7230,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>105</v>
@@ -7241,7 +7247,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>93</v>
@@ -7258,7 +7264,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>113</v>
@@ -7275,7 +7281,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>194</v>
@@ -7292,7 +7298,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>103</v>
@@ -7309,7 +7315,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>107</v>
@@ -7326,7 +7332,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>193</v>
@@ -7343,7 +7349,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>246</v>
@@ -7360,10 +7366,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C136" s="15">
         <v>-9000</v>
@@ -7372,7 +7378,7 @@
         <v>-1730916</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -7380,7 +7386,7 @@
         <v>600529</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C137" s="24">
         <v>70000</v>
@@ -7397,7 +7403,7 @@
         <v>603897</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C138" s="24">
         <v>25000</v>
@@ -7530,7 +7536,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>197</v>
@@ -7547,10 +7553,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C147" s="15">
         <v>-70000</v>
@@ -7564,7 +7570,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>131</v>
@@ -7581,7 +7587,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>160</v>
@@ -7598,10 +7604,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C150" s="15">
         <v>5000</v>
@@ -7615,10 +7621,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C151" s="15">
         <v>10000</v>
@@ -7632,7 +7638,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>190</v>
@@ -7649,10 +7655,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="C153" s="15">
         <v>1000</v>
@@ -7661,12 +7667,12 @@
         <v>498036</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B154" s="23" t="s">
         <v>113</v>
@@ -7737,7 +7743,7 @@
         <v>603659</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C158" s="15">
         <v>-9000</v>
@@ -7805,7 +7811,7 @@
         <v>300035</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C162" s="15">
         <v>30000</v>
@@ -7904,10 +7910,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C168" s="15">
         <v>250000</v>
@@ -10359,10 +10365,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B105" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>91</v>
@@ -10382,10 +10388,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B106" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>91</v>
@@ -10405,10 +10411,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B107" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>91</v>
@@ -10428,10 +10434,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B108" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>91</v>
@@ -10451,10 +10457,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>91</v>
@@ -10474,10 +10480,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B110" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>91</v>
@@ -10520,10 +10526,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>91</v>
@@ -10543,10 +10549,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B113" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>91</v>
@@ -10566,10 +10572,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B114" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>91</v>
@@ -10589,10 +10595,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B115" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>91</v>
@@ -10635,10 +10641,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B117" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>91</v>
@@ -10658,10 +10664,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B118" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>91</v>
@@ -10773,10 +10779,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B123" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>91</v>
@@ -10842,10 +10848,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B126" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>91</v>
@@ -10865,10 +10871,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B127" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>91</v>
@@ -10888,10 +10894,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B128" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>91</v>
@@ -10911,10 +10917,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B129" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>91</v>
@@ -10934,10 +10940,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B130" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>91</v>
@@ -10957,10 +10963,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B131" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>91</v>
@@ -10980,10 +10986,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>91</v>
@@ -11003,10 +11009,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>91</v>
@@ -11072,10 +11078,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>91</v>
@@ -11118,10 +11124,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B138" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>91</v>

--- a/桌面/抗通胀/流程额度.xlsx
+++ b/桌面/抗通胀/流程额度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\抗通胀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C896D-A3EB-47E4-B377-79FE032DBC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F05D6-377A-46D9-BDBB-95EA40267410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="381">
   <si>
     <t>代码</t>
   </si>
@@ -1235,6 +1235,26 @@
   </si>
   <si>
     <t>安信稳健增利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商安华A/C</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>008791.OF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华双债增利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>000054.OF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级债基</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1895,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3118,6 +3138,48 @@
         <v>300</v>
       </c>
       <c r="G49" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F50">
+        <f>D50-E50</f>
+        <v>1000</v>
+      </c>
+      <c r="G50" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F51">
+        <f>D51-E51</f>
+        <v>1000</v>
+      </c>
+      <c r="G51" s="2">
         <v>44561</v>
       </c>
     </row>

--- a/桌面/抗通胀/流程额度.xlsx
+++ b/桌面/抗通胀/流程额度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\抗通胀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F05D6-377A-46D9-BDBB-95EA40267410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B565A9D-05BC-4BDC-8C40-602BA09CCFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1915,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2920,11 +2920,11 @@
         <v>2000</v>
       </c>
       <c r="E40">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>44561</v>

--- a/桌面/抗通胀/流程额度.xlsx
+++ b/桌面/抗通胀/流程额度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\抗通胀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B565A9D-05BC-4BDC-8C40-602BA09CCFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA532959-4E83-4BF5-BCC8-B34353FFD6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1915,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>75</v>
       </c>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>77</v>
       </c>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>79</v>
       </c>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>81</v>
       </c>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>83</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>86</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -2929,11 +2929,8 @@
       <c r="G40" s="2">
         <v>44561</v>
       </c>
-      <c r="I40">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -2957,7 +2954,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -2981,7 +2978,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>229</v>
       </c>
@@ -3005,7 +3002,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>250</v>
       </c>
@@ -3028,7 +3025,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>252</v>
       </c>
@@ -3051,7 +3048,7 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>303</v>
       </c>
@@ -3075,7 +3072,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>305</v>
       </c>
@@ -3099,7 +3096,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>307</v>
       </c>

--- a/桌面/抗通胀/流程额度.xlsx
+++ b/桌面/抗通胀/流程额度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\抗通胀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA532959-4E83-4BF5-BCC8-B34353FFD6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5BC288-8DD6-4E88-9D8F-16CB893F3A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="384">
   <si>
     <t>代码</t>
   </si>
@@ -1255,6 +1255,18 @@
   </si>
   <si>
     <t>二级债基</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上投摩根医疗健康</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票基金</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>001766.OF</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1915,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3177,6 +3189,30 @@
         <v>1000</v>
       </c>
       <c r="G51" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D52" s="4">
+        <v>500</v>
+      </c>
+      <c r="E52">
+        <v>200</v>
+      </c>
+      <c r="F52">
+        <f>D52-E52</f>
+        <v>300</v>
+      </c>
+      <c r="G52" s="2">
         <v>44561</v>
       </c>
     </row>
